--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28360" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="743">
   <si>
     <t>type</t>
   </si>
@@ -2263,6 +2263,12 @@
   </si>
   <si>
     <t>1.10.0-rc1</t>
+  </si>
+  <si>
+    <t>Set Window to Wall Ratio by Façade West</t>
+  </si>
+  <si>
+    <t>Set Window to Wall Ratio by Façade East</t>
   </si>
 </sst>
 </file>
@@ -5795,17 +5801,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -5815,7 +5821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -5825,7 +5831,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
@@ -5847,7 +5853,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -5915,7 +5921,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="7" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -5944,7 +5950,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -5966,7 +5972,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>464</v>
       </c>
@@ -5988,7 +5994,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>465</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>466</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>468</v>
       </c>
@@ -6021,7 +6027,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -6035,7 +6041,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>453</v>
       </c>
@@ -6043,12 +6049,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="23" customFormat="1">
       <c r="B22" s="18"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A23" s="6" t="s">
         <v>451</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Sample Method</v>
@@ -6084,7 +6090,7 @@
       </c>
       <c r="E24" s="23"/>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="28">
       <c r="A25" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Number of Samples</v>
@@ -6102,7 +6108,7 @@
       </c>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6118,7 +6124,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="23" customFormat="1">
       <c r="A27" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6133,7 +6139,7 @@
       </c>
       <c r="D27" s="27"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="23" customFormat="1">
       <c r="A28" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6148,7 +6154,7 @@
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="23" customFormat="1">
       <c r="A29" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6163,7 +6169,7 @@
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="23" customFormat="1">
       <c r="A30" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6178,7 +6184,7 @@
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="23" customFormat="1">
       <c r="A31" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6193,7 +6199,7 @@
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="23" customFormat="1">
       <c r="A32" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6208,7 +6214,7 @@
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6224,7 +6230,7 @@
       <c r="D33" s="27"/>
       <c r="E33" s="23"/>
     </row>
-    <row r="34" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="23" customFormat="1">
       <c r="A34" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6239,13 +6245,13 @@
       </c>
       <c r="D34" s="27"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="23" customFormat="1">
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -6259,7 +6265,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -6267,7 +6273,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A39" s="6" t="s">
         <v>30</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="28">
       <c r="A40" s="23" t="s">
         <v>32</v>
       </c>
@@ -6302,7 +6308,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
@@ -6351,37 +6357,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1"/>
-    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="1"/>
+    <col min="25" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6417,7 +6423,7 @@
       <c r="Y1" s="47"/>
       <c r="Z1" s="47"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6453,7 +6459,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -6531,7 +6537,7 @@
       </c>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="29" customFormat="1">
       <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
@@ -6569,7 +6575,7 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="22" customFormat="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6609,7 +6615,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="28" customFormat="1">
       <c r="A6" s="42"/>
       <c r="B6" s="42" t="s">
         <v>22</v>
@@ -6657,7 +6663,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="28" customFormat="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6695,7 +6701,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="22" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6733,7 +6739,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6771,7 +6777,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="22" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6809,7 +6815,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="22" customFormat="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -6847,7 +6853,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="29" customFormat="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -6885,7 +6891,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="28" customFormat="1">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -6923,7 +6929,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="22" customFormat="1">
       <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
@@ -6961,7 +6967,7 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="22" customFormat="1">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>22</v>
@@ -7009,7 +7015,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
@@ -7047,7 +7053,7 @@
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
     </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>22</v>
@@ -7095,7 +7101,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7133,7 +7139,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7171,7 +7177,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7209,7 +7215,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
@@ -7247,7 +7253,7 @@
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
     </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
         <v>22</v>
@@ -7299,7 +7305,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7337,7 +7343,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7375,7 +7381,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7413,12 +7419,12 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>383</v>
+        <v>741</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7451,7 +7457,7 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
     </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
         <v>22</v>
@@ -7499,7 +7505,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7537,7 +7543,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7577,12 +7583,12 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>383</v>
+        <v>742</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7615,7 +7621,7 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
     </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A31" s="46"/>
       <c r="B31" s="46" t="s">
         <v>22</v>
@@ -7663,7 +7669,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7701,7 +7707,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7741,7 +7747,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="28" customFormat="1">
       <c r="A34" s="39" t="b">
         <v>1</v>
       </c>
@@ -7779,7 +7785,7 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="22" customFormat="1">
       <c r="A35" s="42"/>
       <c r="B35" s="42" t="s">
         <v>22</v>
@@ -7829,7 +7835,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="22" customFormat="1">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -7869,7 +7875,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="22" customFormat="1">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -7907,7 +7913,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="29" customFormat="1">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -7945,7 +7951,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A39" s="45" t="b">
         <v>1</v>
       </c>
@@ -7983,7 +7989,7 @@
       <c r="Y39" s="39"/>
       <c r="Z39" s="39"/>
     </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -8023,7 +8029,7 @@
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>21</v>
@@ -8063,7 +8069,7 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
     </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -8091,7 +8097,7 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -8119,7 +8125,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -8147,7 +8153,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -8175,7 +8181,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -8203,7 +8209,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -8231,7 +8237,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -8259,7 +8265,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -8287,7 +8293,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8315,7 +8321,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" customFormat="1" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8343,7 +8349,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" customFormat="1" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8371,7 +8377,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" customFormat="1" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8399,7 +8405,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" customFormat="1" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8427,7 +8433,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" customFormat="1" ht="15">
       <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8455,7 +8461,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8483,7 +8489,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" customFormat="1" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8511,7 +8517,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8539,7 +8545,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8567,7 +8573,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8595,7 +8601,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8623,7 +8629,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8651,7 +8657,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8679,7 +8685,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -8707,7 +8713,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -8735,7 +8741,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8763,7 +8769,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15">
       <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -8791,7 +8797,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -8819,7 +8825,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -8847,7 +8853,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -8875,7 +8881,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8903,7 +8909,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8931,7 +8937,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -8959,7 +8965,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -8987,7 +8993,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9015,7 +9021,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9043,7 +9049,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9071,7 +9077,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9099,7 +9105,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9127,7 +9133,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9155,7 +9161,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9183,7 +9189,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9211,7 +9217,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9239,7 +9245,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9267,7 +9273,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9295,7 +9301,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15">
       <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9323,7 +9329,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9351,7 +9357,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9379,7 +9385,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9407,7 +9413,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9435,7 +9441,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9463,7 +9469,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9491,7 +9497,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9519,7 +9525,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9547,7 +9553,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9575,7 +9581,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9603,7 +9609,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9631,7 +9637,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9683,25 +9689,25 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -9718,7 +9724,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
       <c r="A2" s="35" t="s">
         <v>461</v>
       </c>
@@ -9757,7 +9763,7 @@
       </c>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
       <c r="A3" s="35" t="s">
         <v>629</v>
       </c>
@@ -9796,7 +9802,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="23" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>636</v>
       </c>
@@ -9829,7 +9835,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="23" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>639</v>
       </c>
@@ -9862,7 +9868,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
         <v>642</v>
       </c>
@@ -9895,7 +9901,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>645</v>
       </c>
@@ -9928,7 +9934,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
         <v>677</v>
       </c>
@@ -9957,7 +9963,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
         <v>679</v>
       </c>
@@ -9986,7 +9992,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
         <v>680</v>
       </c>
@@ -10015,7 +10021,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
         <v>681</v>
       </c>
@@ -10044,7 +10050,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
         <v>683</v>
       </c>
@@ -10073,7 +10079,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
         <v>685</v>
       </c>
@@ -10102,7 +10108,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
         <v>687</v>
       </c>
@@ -10131,7 +10137,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="23" customFormat="1">
       <c r="A15" s="15" t="s">
         <v>689</v>
       </c>
@@ -10160,7 +10166,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="23" customFormat="1">
       <c r="A16" s="15" t="s">
         <v>691</v>
       </c>
@@ -10189,7 +10195,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
         <v>693</v>
       </c>
@@ -10218,7 +10224,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
         <v>695</v>
       </c>
@@ -10247,7 +10253,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
         <v>697</v>
       </c>
@@ -10276,7 +10282,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
         <v>699</v>
       </c>
@@ -10305,7 +10311,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="22" customFormat="1">
       <c r="A21" s="15" t="s">
         <v>701</v>
       </c>
@@ -10334,7 +10340,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="22" customFormat="1">
       <c r="A22" s="15" t="s">
         <v>703</v>
       </c>
@@ -10363,7 +10369,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
         <v>705</v>
       </c>
@@ -10392,7 +10398,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
         <v>707</v>
       </c>
@@ -10421,7 +10427,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="23" customFormat="1">
       <c r="A25" s="15" t="s">
         <v>709</v>
       </c>
@@ -10450,7 +10456,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="23" customFormat="1">
       <c r="A26" s="15" t="s">
         <v>711</v>
       </c>
@@ -10479,7 +10485,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10494,7 +10500,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10509,7 +10515,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -10524,7 +10530,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -10539,202 +10545,202 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" s="22"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2">
       <c r="B95" s="22"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2">
       <c r="B96" s="22"/>
     </row>
   </sheetData>
@@ -10756,19 +10762,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -10787,7 +10793,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -10808,7 +10814,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -10831,7 +10837,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -10854,7 +10860,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -10877,7 +10883,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -10900,7 +10906,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -10923,7 +10929,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -10946,7 +10952,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -10969,7 +10975,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -10992,7 +10998,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11011,7 +11017,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11032,7 +11038,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11055,7 +11061,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11078,7 +11084,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11101,7 +11107,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11124,7 +11130,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11147,7 +11153,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11170,7 +11176,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11193,7 +11199,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11216,7 +11222,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11235,7 +11241,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11258,7 +11264,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11281,7 +11287,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11304,7 +11310,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11327,7 +11333,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11350,7 +11356,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11373,7 +11379,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11396,7 +11402,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11419,7 +11425,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11442,7 +11448,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11461,7 +11467,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11482,7 +11488,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11505,7 +11511,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11528,7 +11534,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11551,7 +11557,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11574,7 +11580,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11597,7 +11603,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11620,7 +11626,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11643,7 +11649,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11666,7 +11672,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11685,7 +11691,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11706,7 +11712,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11729,7 +11735,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11752,7 +11758,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11775,7 +11781,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -11798,7 +11804,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -11821,7 +11827,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -11844,7 +11850,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -11867,7 +11873,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -11890,7 +11896,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -11909,7 +11915,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -11930,7 +11936,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -11953,7 +11959,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -11976,7 +11982,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -11999,7 +12005,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12022,7 +12028,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12045,7 +12051,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12068,7 +12074,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12091,7 +12097,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12114,7 +12120,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12133,7 +12139,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12154,7 +12160,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12179,7 +12185,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12202,7 +12208,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12225,7 +12231,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12248,7 +12254,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12271,7 +12277,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12294,7 +12300,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12317,7 +12323,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12340,7 +12346,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12363,7 +12369,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12382,7 +12388,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12403,7 +12409,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12426,7 +12432,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12451,7 +12457,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12474,7 +12480,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12497,7 +12503,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12520,7 +12526,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12543,7 +12549,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12566,7 +12572,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12589,7 +12595,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12612,7 +12618,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12635,7 +12641,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12658,7 +12664,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12681,7 +12687,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12700,7 +12706,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12723,7 +12729,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12746,7 +12752,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12769,7 +12775,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -12792,7 +12798,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -12815,7 +12821,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -12838,7 +12844,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -12861,7 +12867,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -12884,7 +12890,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -12907,7 +12913,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -12930,7 +12936,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -12949,7 +12955,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -12974,7 +12980,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -12993,7 +12999,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13014,7 +13020,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13039,7 +13045,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13058,7 +13064,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13081,7 +13087,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13106,7 +13112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13129,7 +13135,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13150,7 +13156,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13169,7 +13175,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13194,7 +13200,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13217,7 +13223,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13240,7 +13246,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13263,7 +13269,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13286,7 +13292,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13309,7 +13315,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13332,7 +13338,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13351,7 +13357,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13374,7 +13380,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13397,7 +13403,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13420,7 +13426,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13439,7 +13445,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13462,7 +13468,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13485,7 +13491,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13508,7 +13514,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13531,7 +13537,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13554,7 +13560,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13577,7 +13583,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13596,7 +13602,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13621,7 +13627,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13644,7 +13650,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13667,7 +13673,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13690,7 +13696,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13713,7 +13719,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13736,7 +13742,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13759,7 +13765,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -13782,7 +13788,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -13805,7 +13811,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -13824,7 +13830,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -13849,7 +13855,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -13870,7 +13876,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -13893,7 +13899,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -13916,7 +13922,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -13939,7 +13945,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -13962,7 +13968,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -13985,7 +13991,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14008,7 +14014,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14031,7 +14037,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14054,7 +14060,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14077,7 +14083,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14100,7 +14106,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14123,7 +14129,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14146,7 +14152,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14165,7 +14171,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14188,7 +14194,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14207,7 +14213,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14230,7 +14236,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14253,7 +14259,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14272,7 +14278,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14297,7 +14303,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14320,7 +14326,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14343,7 +14349,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14366,7 +14372,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14389,7 +14395,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14412,7 +14418,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14435,7 +14441,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14458,7 +14464,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14481,7 +14487,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14504,7 +14510,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14523,7 +14529,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14548,7 +14554,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14571,7 +14577,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14594,7 +14600,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14617,7 +14623,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14640,7 +14646,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14663,7 +14669,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14686,7 +14692,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14709,7 +14715,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14732,7 +14738,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14755,7 +14761,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14774,7 +14780,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -14797,7 +14803,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -14820,7 +14826,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -14843,7 +14849,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -14866,7 +14872,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -14885,7 +14891,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -14908,7 +14914,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -14931,7 +14937,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -14954,7 +14960,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -14977,7 +14983,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -14996,7 +15002,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15017,7 +15023,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15040,7 +15046,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15059,7 +15065,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15082,7 +15088,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15107,7 +15113,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15128,7 +15134,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15153,7 +15159,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15178,7 +15184,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15197,7 +15203,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15222,7 +15228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15245,7 +15251,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15268,7 +15274,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15291,7 +15297,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15314,7 +15320,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15337,7 +15343,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15360,7 +15366,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15383,7 +15389,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15406,7 +15412,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15425,7 +15431,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15450,7 +15456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15473,7 +15479,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15496,7 +15502,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15519,7 +15525,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15542,7 +15548,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15565,7 +15571,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15588,7 +15594,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15611,7 +15617,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15634,7 +15640,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15653,7 +15659,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15674,7 +15680,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15697,7 +15703,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15720,7 +15726,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15743,7 +15749,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15766,7 +15772,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -15789,7 +15795,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -15812,7 +15818,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -15835,7 +15841,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -15858,7 +15864,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -15881,7 +15887,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -15904,7 +15910,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -15927,7 +15933,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -15950,7 +15956,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -15973,7 +15979,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -15996,7 +16002,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16019,7 +16025,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16038,7 +16044,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16059,7 +16065,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16082,7 +16088,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16105,7 +16111,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16128,7 +16134,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16151,7 +16157,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16174,7 +16180,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16197,7 +16203,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16220,7 +16226,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16243,7 +16249,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16266,7 +16272,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16289,7 +16295,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16312,7 +16318,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16335,7 +16341,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16358,7 +16364,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16381,7 +16387,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16404,7 +16410,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16423,7 +16429,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16448,7 +16454,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16471,7 +16477,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16494,7 +16500,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16517,7 +16523,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16540,7 +16546,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16559,7 +16565,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16584,7 +16590,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16607,7 +16613,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16626,7 +16632,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16645,7 +16651,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16664,7 +16670,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16685,7 +16691,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16708,7 +16714,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16731,7 +16737,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16754,7 +16760,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -16777,7 +16783,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -16800,7 +16806,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -16823,7 +16829,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -16846,7 +16852,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -16869,7 +16875,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -16892,7 +16898,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -16915,7 +16921,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -16934,7 +16940,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -16957,7 +16963,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -16976,7 +16982,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17001,7 +17007,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17024,7 +17030,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17047,7 +17053,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17070,7 +17076,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17093,7 +17099,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17116,7 +17122,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17139,7 +17145,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17162,7 +17168,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17185,7 +17191,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17208,7 +17214,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17231,7 +17237,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17250,7 +17256,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17273,7 +17279,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17292,7 +17298,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17313,7 +17319,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17332,7 +17338,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17353,7 +17359,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17372,7 +17378,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17393,7 +17399,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17412,7 +17418,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17435,7 +17441,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17454,7 +17460,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17479,7 +17485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17502,7 +17508,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17525,7 +17531,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17548,7 +17554,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17571,7 +17577,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17594,7 +17600,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17617,7 +17623,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17640,7 +17646,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17663,7 +17669,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17682,7 +17688,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17705,7 +17711,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17728,7 +17734,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17751,7 +17757,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17774,7 +17780,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -17793,7 +17799,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -17816,7 +17822,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -17839,7 +17845,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -17864,7 +17870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -17883,7 +17889,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -17908,7 +17914,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -17931,7 +17937,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -17950,7 +17956,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -17971,7 +17977,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -17992,7 +17998,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18015,7 +18021,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18034,7 +18040,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18053,7 +18059,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18078,7 +18084,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18103,7 +18109,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18117,7 +18123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18140,7 +18146,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18160,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18180,7 +18186,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18200,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18217,7 +18223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18240,7 +18246,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18263,7 +18269,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18277,7 +18283,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18300,7 +18306,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18323,7 +18329,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18343,7 +18349,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18363,7 +18369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18380,7 +18386,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18406,7 +18412,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18435,7 +18441,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18474,7 +18480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18488,7 +18494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18508,7 +18514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18522,7 +18528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18542,7 +18548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18562,7 +18568,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18582,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18602,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18622,7 +18628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18642,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18662,7 +18668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18682,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18702,7 +18708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18716,7 +18722,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18736,7 +18742,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18756,7 +18762,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18772,7 +18778,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18798,7 +18804,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18839,7 +18845,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18853,7 +18859,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18873,7 +18879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18887,7 +18893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18926,17 +18932,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18953,7 +18959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>651</v>
       </c>
@@ -18970,7 +18976,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="22" customFormat="1">
       <c r="A3" s="22" t="s">
         <v>593</v>
       </c>
@@ -18987,7 +18993,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="22" customFormat="1">
       <c r="A4" s="22" t="s">
         <v>595</v>
       </c>
@@ -19004,7 +19010,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="22" customFormat="1">
       <c r="A5" s="22" t="s">
         <v>597</v>
       </c>
@@ -19021,7 +19027,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
         <v>658</v>
       </c>
@@ -19038,7 +19044,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>661</v>
       </c>
@@ -19055,7 +19061,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="22" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>599</v>
       </c>
@@ -19072,7 +19078,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="22" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>601</v>
       </c>
@@ -19089,7 +19095,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="22" t="s">
         <v>440</v>
       </c>
@@ -19106,7 +19112,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
         <v>604</v>
       </c>
@@ -19123,7 +19129,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
         <v>606</v>
       </c>
@@ -19140,9 +19146,9 @@
         <v>672</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="22" customFormat="1"/>
+    <row r="14" spans="1:7" s="22" customFormat="1"/>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>573</v>
       </c>
@@ -19156,7 +19162,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>456</v>
       </c>
@@ -19170,7 +19176,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -19181,8 +19187,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="22" customFormat="1"/>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>551</v>
       </c>
@@ -19208,7 +19214,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -19249,7 +19255,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -19290,7 +19296,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>545</v>
       </c>
@@ -19322,7 +19328,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -19354,7 +19360,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>553</v>
       </c>
@@ -19383,7 +19389,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -19415,7 +19421,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>556</v>
       </c>
@@ -19435,7 +19441,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="L28" s="1" t="s">
         <v>561</v>
       </c>
@@ -19455,7 +19461,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="L29" s="1" t="s">
         <v>562</v>
       </c>
@@ -19466,7 +19472,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="L30" s="1" t="s">
         <v>542</v>
       </c>
@@ -19474,7 +19480,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="L31" s="1" t="s">
         <v>544</v>
       </c>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28360" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2259,16 +2259,16 @@
     <t>South Projection Factor</t>
   </si>
   <si>
-    <t>0.3.5</t>
-  </si>
-  <si>
-    <t>1.10.0-rc1</t>
-  </si>
-  <si>
     <t>Set Window to Wall Ratio by Façade West</t>
   </si>
   <si>
     <t>Set Window to Wall Ratio by Façade East</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>1.11.0-rc3</t>
   </si>
 </sst>
 </file>
@@ -5797,8 +5797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5836,7 +5836,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5858,7 +5858,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5875,24 +5875,24 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>658</v>
+        <v>593</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
-        <v>Recommended for Server if large analysis because of storage</v>
+        <v>Recommended for Server</v>
       </c>
       <c r="D7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>4 Cores with 850 GB</v>
+        <v>2 Cores with 32 GB</v>
       </c>
       <c r="E7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.49/hour</v>
+        <v>$0.14/hour</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>610</v>
@@ -5903,19 +5903,19 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
-        <v>Worker Only - Recommended for Worker</v>
+        <v>Worker Only</v>
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>32 Cores with 320 GB</v>
+        <v>2 Cores with 16 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$1.68/hour</v>
+        <v>$0.11/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5926,7 +5926,7 @@
         <v>460</v>
       </c>
       <c r="B9" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$2.17/hour</v>
+        <v>$0.14/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
@@ -6097,14 +6097,14 @@
       </c>
       <c r="B25" s="18">
         <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C25" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D25" s="27">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E25" s="23"/>
     </row>
@@ -6357,7 +6357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -7424,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7588,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$3</definedName>
     <definedName name="AnalysisType">Lookups!$A$21:$A$27</definedName>
-    <definedName name="instance_defs">Lookups!$A$2:$E$12</definedName>
-    <definedName name="instance_types">Lookups!$A$2:$A$12</definedName>
+    <definedName name="instance_defs">Lookups!$A$2:$E$10</definedName>
+    <definedName name="instance_types">Lookups!$A$2:$A$10</definedName>
     <definedName name="nsga">Lookups!$O$22:$P$28</definedName>
     <definedName name="nsga_nrel">Lookups!$O$22:$P$28</definedName>
     <definedName name="optim">Lookups!$I$21:$J$26</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="736">
   <si>
     <t>type</t>
   </si>
@@ -1590,9 +1590,6 @@
     <t>peak_use_flow_rate</t>
   </si>
   <si>
-    <t>new_user</t>
-  </si>
-  <si>
     <t>SetChillerCOP</t>
   </si>
   <si>
@@ -1866,9 +1863,6 @@
     <t>$1.68/hour</t>
   </si>
   <si>
-    <t>Default Cluster</t>
-  </si>
-  <si>
     <t>Number of worker nodes to start.</t>
   </si>
   <si>
@@ -2016,24 +2010,6 @@
     <t>80 GB</t>
   </si>
   <si>
-    <t>m2.2xlarge</t>
-  </si>
-  <si>
-    <t>$0.49/hour</t>
-  </si>
-  <si>
-    <t>850 GB</t>
-  </si>
-  <si>
-    <t>m2.4xlarge</t>
-  </si>
-  <si>
-    <t>$0.98/hour</t>
-  </si>
-  <si>
-    <t>840 GB</t>
-  </si>
-  <si>
     <t>16 GB</t>
   </si>
   <si>
@@ -2052,15 +2028,6 @@
     <t>Recommended for Server</t>
   </si>
   <si>
-    <t>Recommended for Server if large analysis because of storage</t>
-  </si>
-  <si>
-    <t>Worker Only</t>
-  </si>
-  <si>
-    <t>Worker Only - Recommended for Worker</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -2265,10 +2232,22 @@
     <t>Set Window to Wall Ratio by Façade East</t>
   </si>
   <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
     <t>1.11.0-rc3</t>
+  </si>
+  <si>
+    <t>0.4.2</t>
+  </si>
+  <si>
+    <t>Server or Worker</t>
+  </si>
+  <si>
+    <t>Server or Worker - Recommended for Worker</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -2430,8 +2409,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1481">
+  <cellStyleXfs count="1495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4015,7 +4008,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1481">
+  <cellStyles count="1495">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4756,6 +4749,13 @@
     <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5496,6 +5496,13 @@
     <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5797,8 +5804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5836,7 +5843,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5847,7 +5854,7 @@
         <v>458</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>516</v>
+        <v>734</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>459</v>
@@ -5858,10 +5865,10 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46" customHeight="1">
@@ -5869,7 +5876,7 @@
         <v>472</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>608</v>
+        <v>735</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>474</v>
@@ -5880,7 +5887,7 @@
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
@@ -5888,14 +5895,14 @@
       </c>
       <c r="D7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>2 Cores with 32 GB</v>
+        <v>4 Cores with 40 GB</v>
       </c>
       <c r="E7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.14/hour</v>
+        <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28">
@@ -5903,19 +5910,19 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>599</v>
+        <v>440</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
-        <v>Worker Only</v>
+        <v>Server or Worker - Recommended for Worker</v>
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>2 Cores with 16 GB</v>
+        <v>8 Cores with 80 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.11/hour</v>
+        <v>$0.42/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5926,18 +5933,18 @@
         <v>460</v>
       </c>
       <c r="B9" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$0.14/hour</v>
+        <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="7" customFormat="1">
@@ -5955,7 +5962,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -5966,10 +5973,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5980,7 +5987,7 @@
         <v>452</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6002,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6021,7 +6028,7 @@
         <v>468</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>437</v>
@@ -6032,7 +6039,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -6059,13 +6066,13 @@
         <v>451</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
@@ -6097,14 +6104,14 @@
       </c>
       <c r="B25" s="18">
         <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C25" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D25" s="27">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E25" s="23"/>
     </row>
@@ -6256,7 +6263,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>31</v>
@@ -6270,7 +6277,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6284,7 +6291,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="8" t="s">
@@ -6296,13 +6303,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>450</v>
@@ -6316,12 +6323,12 @@
         <v>34</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -6431,10 +6438,10 @@
         <v>37</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
@@ -6476,7 +6483,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6503,7 +6510,7 @@
         <v>9</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P3" s="38" t="s">
         <v>477</v>
@@ -6622,7 +6629,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6974,7 +6981,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7060,7 +7067,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7090,7 +7097,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7260,7 +7267,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7288,13 +7295,13 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -7424,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7464,7 +7471,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7561,7 +7568,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>84</v>
@@ -7588,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7628,7 +7635,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7725,7 +7732,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7792,13 +7799,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -7932,7 +7939,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -9729,10 +9736,10 @@
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>462</v>
@@ -9744,41 +9751,41 @@
         <v>11</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>621</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>626</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>627</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>628</v>
       </c>
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
       <c r="A3" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>648</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>629</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>650</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>630</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>631</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>463</v>
@@ -9790,30 +9797,30 @@
         <v>463</v>
       </c>
       <c r="J3" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="M3" s="35" t="s">
         <v>633</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>633</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>634</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="23" customFormat="1">
       <c r="A4" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>636</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>638</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>470</v>
@@ -9837,16 +9844,16 @@
     </row>
     <row r="5" spans="1:13" s="23" customFormat="1">
       <c r="A5" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>639</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>716</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>641</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>470</v>
@@ -9870,16 +9877,16 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>642</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>717</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>644</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>470</v>
@@ -9903,16 +9910,16 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>645</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>647</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>470</v>
@@ -9936,15 +9943,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -9965,15 +9972,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -9994,15 +10001,15 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>64</v>
@@ -10023,15 +10030,15 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>64</v>
@@ -10052,12 +10059,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10081,12 +10088,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10110,12 +10117,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10139,12 +10146,12 @@
     </row>
     <row r="15" spans="1:13" s="23" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10168,12 +10175,12 @@
     </row>
     <row r="16" spans="1:13" s="23" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10197,12 +10204,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10226,12 +10233,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10255,12 +10262,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10284,12 +10291,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10313,12 +10320,12 @@
     </row>
     <row r="21" spans="1:13" s="22" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10342,12 +10349,12 @@
     </row>
     <row r="22" spans="1:13" s="22" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10371,12 +10378,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10400,12 +10407,12 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>470</v>
@@ -10429,12 +10436,12 @@
     </row>
     <row r="25" spans="1:13" s="23" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>470</v>
@@ -10458,15 +10465,15 @@
     </row>
     <row r="26" spans="1:13" s="23" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>64</v>
@@ -18391,10 +18398,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>68</v>
@@ -18421,7 +18428,7 @@
         <v>481</v>
       </c>
       <c r="D343" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -18430,10 +18437,10 @@
         <v>62</v>
       </c>
       <c r="H343" t="s">
+        <v>520</v>
+      </c>
+      <c r="I343" t="s">
         <v>521</v>
-      </c>
-      <c r="I343" t="s">
-        <v>522</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -18447,10 +18454,10 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
+        <v>518</v>
+      </c>
+      <c r="D344" t="s">
         <v>519</v>
-      </c>
-      <c r="D344" t="s">
-        <v>520</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -18485,10 +18492,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C345" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>68</v>
@@ -18499,10 +18506,10 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -18713,10 +18720,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C357" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D357" t="s">
         <v>68</v>
@@ -18727,10 +18734,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
+        <v>528</v>
+      </c>
+      <c r="D358" t="s">
         <v>529</v>
-      </c>
-      <c r="D358" t="s">
-        <v>530</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -18747,10 +18754,10 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D359" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -18767,10 +18774,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>68</v>
@@ -18786,7 +18793,7 @@
         <v>481</v>
       </c>
       <c r="D361" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -18796,10 +18803,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
+        <v>520</v>
+      </c>
+      <c r="I361" t="s">
         <v>521</v>
-      </c>
-      <c r="I361" t="s">
-        <v>522</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -18810,10 +18817,10 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
+        <v>518</v>
+      </c>
+      <c r="D362" t="s">
         <v>519</v>
-      </c>
-      <c r="D362" t="s">
-        <v>520</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -18850,10 +18857,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C363" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>68</v>
@@ -18864,10 +18871,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
+        <v>534</v>
+      </c>
+      <c r="D364" t="s">
         <v>535</v>
-      </c>
-      <c r="D364" t="s">
-        <v>536</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -18884,10 +18891,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C365" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>68</v>
@@ -18898,10 +18905,10 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D366" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -18928,8 +18935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18953,7 +18960,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -18961,205 +18968,173 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>654</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
       <c r="A3" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>445</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
       <c r="A4" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
       <c r="A5" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
-        <v>658</v>
+        <v>598</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>659</v>
+        <v>599</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>670</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
-      <c r="A8" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>445</v>
-      </c>
       <c r="C8" s="22" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>671</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="22" customFormat="1">
       <c r="A10" s="22" t="s">
-        <v>440</v>
+        <v>605</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>447</v>
+        <v>658</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1">
-      <c r="A11" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1">
-      <c r="A12" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>667</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>672</v>
-      </c>
-    </row>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1"/>
+    <row r="12" spans="1:7" s="22" customFormat="1"/>
     <row r="13" spans="1:7" s="22" customFormat="1"/>
     <row r="14" spans="1:7" s="22" customFormat="1"/>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="E15" t="s">
         <v>557</v>
       </c>
-      <c r="E15" t="s">
-        <v>558</v>
-      </c>
       <c r="G15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -19170,7 +19145,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G16" t="s">
         <v>467</v>
@@ -19184,66 +19159,66 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="22" customFormat="1"/>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
+        <v>550</v>
+      </c>
+      <c r="C20" t="s">
         <v>551</v>
-      </c>
-      <c r="C20" t="s">
-        <v>552</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R20" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="U20" s="22" t="s">
         <v>555</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G21" t="s">
         <v>456</v>
       </c>
       <c r="H21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J21" s="21">
         <v>0.01</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M21">
         <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O21" t="s">
         <v>4</v>
@@ -19252,7 +19227,7 @@
         <v>30</v>
       </c>
       <c r="Q21" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -19266,229 +19241,229 @@
         <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J22" s="21">
         <v>0.01</v>
       </c>
       <c r="K22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M22">
         <v>5</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P22">
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J23" s="21">
         <v>45036000000000</v>
       </c>
       <c r="K23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P23">
         <v>0.85</v>
       </c>
       <c r="Q23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L24" t="s">
+        <v>583</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
         <v>584</v>
       </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>585</v>
-      </c>
       <c r="O24" s="23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P24">
         <v>2</v>
       </c>
       <c r="Q24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J25" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="J25" s="23" t="s">
-        <v>543</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M25" s="21">
         <v>0.01</v>
       </c>
       <c r="N25" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J26" s="23">
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M26" s="21">
         <v>0.01</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P26">
         <v>0.8</v>
       </c>
       <c r="Q26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M27" s="21">
         <v>0.01</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O27" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="P27" s="23" t="s">
         <v>542</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="L28" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M28" s="21">
         <v>45036000000000</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P28" s="23">
         <v>2</v>
       </c>
       <c r="Q28" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="L29" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M29" s="22">
         <v>100</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="L30" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="M30" s="23" t="s">
         <v>542</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="L31" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M31" s="23">
         <v>2</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="737">
   <si>
     <t>type</t>
   </si>
@@ -2248,6 +2248,9 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>Junk test</t>
   </si>
 </sst>
 </file>
@@ -2409,8 +2412,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1495">
+  <cellStyleXfs count="1497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4008,7 +4013,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1495">
+  <cellStyles count="1497">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4756,6 +4761,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5503,6 +5509,7 @@
     <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5802,10 +5809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6298,12 +6305,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28">
+    <row r="40" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A40" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
@@ -6311,23 +6318,41 @@
       <c r="D40" s="14" t="s">
         <v>719</v>
       </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="56">
-      <c r="A42" s="6" t="s">
+    <row r="41" spans="1:6" ht="28">
+      <c r="A41" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8" t="s">
         <v>614</v>
       </c>
     </row>
@@ -18935,7 +18960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="736">
   <si>
     <t>type</t>
   </si>
@@ -2248,9 +2248,6 @@
   </si>
   <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>Junk test</t>
   </si>
 </sst>
 </file>
@@ -5809,10 +5806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6305,12 +6302,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="23" customFormat="1" ht="28">
+    <row r="40" spans="1:6" ht="28">
       <c r="A40" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
@@ -6318,41 +6315,23 @@
       <c r="D40" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28">
-      <c r="A41" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
-      <c r="A43" s="6" t="s">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="8" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="8" t="s">
         <v>614</v>
       </c>
     </row>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
+    <workbookView xWindow="1200" yWindow="1200" windowWidth="24400" windowHeight="14860" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2232,9 +2232,6 @@
     <t>Set Window to Wall Ratio by Façade East</t>
   </si>
   <si>
-    <t>1.11.0-rc3</t>
-  </si>
-  <si>
     <t>0.4.2</t>
   </si>
   <si>
@@ -2248,6 +2245,9 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>1.12.4</t>
   </si>
 </sst>
 </file>
@@ -5809,7 +5809,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5847,7 +5847,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5858,7 +5858,7 @@
         <v>458</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>459</v>
@@ -5869,7 +5869,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>616</v>
@@ -5880,7 +5880,7 @@
         <v>472</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>474</v>
@@ -19052,7 +19052,7 @@
         <v>656</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19069,7 +19069,7 @@
         <v>654</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -19086,7 +19086,7 @@
         <v>655</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19103,7 +19103,7 @@
         <v>657</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="22" customFormat="1">
@@ -19120,7 +19120,7 @@
         <v>659</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1"/>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1200" windowWidth="24400" windowHeight="14860" tabRatio="562"/>
+    <workbookView xWindow="1200" yWindow="1200" windowWidth="24396" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2247,7 +2247,7 @@
     <t>default</t>
   </si>
   <si>
-    <t>1.12.4</t>
+    <t>1.14.4</t>
   </si>
 </sst>
 </file>
@@ -5812,17 +5812,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -5832,7 +5832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46" customHeight="1">
+    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1">
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>464</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>465</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>466</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>468</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>453</v>
       </c>
@@ -6060,12 +6060,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="23" customFormat="1">
+    <row r="22" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>451</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Sample Method</v>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="E24" s="23"/>
     </row>
-    <row r="25" spans="1:6" ht="28">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Number of Samples</v>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6135,7 +6135,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6" s="23" customFormat="1">
+    <row r="27" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="D27" s="27"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1">
+    <row r="28" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1">
+    <row r="29" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1">
+    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1">
+    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:6" s="23" customFormat="1">
+    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6241,7 +6241,7 @@
       <c r="D33" s="27"/>
       <c r="E33" s="23"/>
     </row>
-    <row r="34" spans="1:6" s="23" customFormat="1">
+    <row r="34" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6256,13 +6256,13 @@
       </c>
       <c r="D34" s="27"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1">
+    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -6276,7 +6276,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>30</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>32</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
@@ -6372,33 +6372,33 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1"/>
-    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="1"/>
+    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1"/>
-    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5" style="1"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6434,7 +6434,7 @@
       <c r="Y1" s="47"/>
       <c r="Z1" s="47"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6470,7 +6470,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1">
+    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
@@ -6586,7 +6586,7 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1">
+    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6626,7 +6626,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1">
+    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="42" t="s">
         <v>22</v>
@@ -6674,7 +6674,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1">
+    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6712,7 +6712,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1">
+    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6750,7 +6750,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1">
+    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6788,7 +6788,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1">
+    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6826,7 +6826,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1">
+    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -6864,7 +6864,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1">
+    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -6902,7 +6902,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1">
+    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -6940,7 +6940,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1">
+    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1">
+    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>22</v>
@@ -7026,7 +7026,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
     </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>22</v>
@@ -7112,7 +7112,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7150,7 +7150,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7188,7 +7188,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7226,7 +7226,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
     </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
         <v>22</v>
@@ -7316,7 +7316,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7354,7 +7354,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7392,7 +7392,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7430,7 +7430,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
     </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
         <v>22</v>
@@ -7516,7 +7516,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7554,7 +7554,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7594,7 +7594,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
     </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" s="46" t="s">
         <v>22</v>
@@ -7680,7 +7680,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7718,7 +7718,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7758,7 +7758,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1">
+    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="b">
         <v>1</v>
       </c>
@@ -7796,7 +7796,7 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1">
+    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
       <c r="B35" s="42" t="s">
         <v>22</v>
@@ -7846,7 +7846,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1">
+    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -7886,7 +7886,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1">
+    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -7924,7 +7924,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1">
+    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -7962,7 +7962,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="b">
         <v>1</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="Y39" s="39"/>
       <c r="Z39" s="39"/>
     </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -8040,7 +8040,7 @@
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>21</v>
@@ -8080,7 +8080,7 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
     </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -8108,7 +8108,7 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="43" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -8136,7 +8136,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="44" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -8164,7 +8164,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="45" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -8192,7 +8192,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="46" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -8220,7 +8220,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -8248,7 +8248,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -8276,7 +8276,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -8304,7 +8304,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8332,7 +8332,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15">
+    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8360,7 +8360,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15">
+    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8388,7 +8388,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15">
+    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8416,7 +8416,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15">
+    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8444,7 +8444,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15">
+    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8472,7 +8472,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15">
+    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8500,7 +8500,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15">
+    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8528,7 +8528,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15">
+    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8556,7 +8556,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15">
+    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8584,7 +8584,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15">
+    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8612,7 +8612,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15">
+    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8640,7 +8640,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15">
+    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8668,7 +8668,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
+    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8696,7 +8696,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15">
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -8724,7 +8724,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15">
+    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -8752,7 +8752,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15">
+    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8780,7 +8780,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15">
+    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -8808,7 +8808,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15">
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -8836,7 +8836,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15">
+    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -8864,7 +8864,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -8892,7 +8892,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8920,7 +8920,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8948,7 +8948,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -8976,7 +8976,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9004,7 +9004,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9032,7 +9032,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9060,7 +9060,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9088,7 +9088,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9116,7 +9116,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15">
+    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9144,7 +9144,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9172,7 +9172,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9200,7 +9200,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9228,7 +9228,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9256,7 +9256,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9284,7 +9284,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9312,7 +9312,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15">
+    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9340,7 +9340,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9368,7 +9368,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9396,7 +9396,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9424,7 +9424,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9452,7 +9452,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9480,7 +9480,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9508,7 +9508,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9536,7 +9536,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9564,7 +9564,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9592,7 +9592,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9620,7 +9620,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9648,7 +9648,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9700,25 +9700,25 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -9735,7 +9735,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>461</v>
       </c>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>627</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="23" customFormat="1">
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>634</v>
       </c>
@@ -9846,7 +9846,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1">
+    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>637</v>
       </c>
@@ -9879,7 +9879,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1">
+    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>640</v>
       </c>
@@ -9912,7 +9912,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1">
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>643</v>
       </c>
@@ -9945,7 +9945,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1">
+    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>666</v>
       </c>
@@ -9974,7 +9974,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1">
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>668</v>
       </c>
@@ -10003,7 +10003,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1">
+    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>669</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1">
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>670</v>
       </c>
@@ -10061,7 +10061,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1">
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>672</v>
       </c>
@@ -10090,7 +10090,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1">
+    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>674</v>
       </c>
@@ -10119,7 +10119,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>676</v>
       </c>
@@ -10148,7 +10148,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="23" customFormat="1">
+    <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>678</v>
       </c>
@@ -10177,7 +10177,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1">
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>680</v>
       </c>
@@ -10206,7 +10206,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1">
+    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>682</v>
       </c>
@@ -10235,7 +10235,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1">
+    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>684</v>
       </c>
@@ -10264,7 +10264,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1">
+    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>686</v>
       </c>
@@ -10293,7 +10293,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1">
+    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>688</v>
       </c>
@@ -10322,7 +10322,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1">
+    <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>690</v>
       </c>
@@ -10351,7 +10351,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1">
+    <row r="22" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>692</v>
       </c>
@@ -10380,7 +10380,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1">
+    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>694</v>
       </c>
@@ -10409,7 +10409,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1">
+    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>696</v>
       </c>
@@ -10438,7 +10438,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="23" customFormat="1">
+    <row r="25" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>698</v>
       </c>
@@ -10467,7 +10467,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="23" customFormat="1">
+    <row r="26" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>700</v>
       </c>
@@ -10496,7 +10496,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10511,7 +10511,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10526,7 +10526,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -10541,7 +10541,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -10556,202 +10556,202 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="22"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="22"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="22"/>
     </row>
   </sheetData>
@@ -10773,19 +10773,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -10804,7 +10804,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -10825,7 +10825,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -10848,7 +10848,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -10894,7 +10894,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -10940,7 +10940,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11028,7 +11028,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11049,7 +11049,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11072,7 +11072,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11210,7 +11210,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11275,7 +11275,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11298,7 +11298,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11390,7 +11390,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11478,7 +11478,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11499,7 +11499,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11702,7 +11702,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11723,7 +11723,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -11926,7 +11926,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -11947,7 +11947,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -11970,7 +11970,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12150,7 +12150,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12171,7 +12171,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12196,7 +12196,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12242,7 +12242,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12334,7 +12334,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12357,7 +12357,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12380,7 +12380,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12399,7 +12399,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12420,7 +12420,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12468,7 +12468,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12514,7 +12514,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12583,7 +12583,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12717,7 +12717,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12786,7 +12786,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -12832,7 +12832,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -12878,7 +12878,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -12966,7 +12966,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -12991,7 +12991,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13010,7 +13010,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13031,7 +13031,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13056,7 +13056,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13075,7 +13075,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13123,7 +13123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13146,7 +13146,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13167,7 +13167,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13186,7 +13186,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13211,7 +13211,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13234,7 +13234,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13280,7 +13280,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13368,7 +13368,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13456,7 +13456,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13613,7 +13613,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13638,7 +13638,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -13799,7 +13799,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -13841,7 +13841,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -13866,7 +13866,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -13887,7 +13887,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -13933,7 +13933,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14025,7 +14025,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14048,7 +14048,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14163,7 +14163,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14182,7 +14182,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14205,7 +14205,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14224,7 +14224,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14247,7 +14247,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14289,7 +14289,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14314,7 +14314,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14337,7 +14337,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14383,7 +14383,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14406,7 +14406,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14429,7 +14429,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14452,7 +14452,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14475,7 +14475,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14540,7 +14540,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14565,7 +14565,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14611,7 +14611,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14634,7 +14634,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14680,7 +14680,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14749,7 +14749,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14772,7 +14772,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14791,7 +14791,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -14883,7 +14883,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -14902,7 +14902,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -14948,7 +14948,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -14994,7 +14994,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15013,7 +15013,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15034,7 +15034,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15057,7 +15057,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15076,7 +15076,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15124,7 +15124,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15145,7 +15145,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15170,7 +15170,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15195,7 +15195,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15214,7 +15214,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15239,7 +15239,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15262,7 +15262,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15308,7 +15308,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15331,7 +15331,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15354,7 +15354,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15377,7 +15377,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15400,7 +15400,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15423,7 +15423,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15442,7 +15442,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15467,7 +15467,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15536,7 +15536,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15559,7 +15559,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15582,7 +15582,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15628,7 +15628,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15670,7 +15670,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15691,7 +15691,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15714,7 +15714,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15737,7 +15737,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15783,7 +15783,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -15806,7 +15806,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -15852,7 +15852,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -15898,7 +15898,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -15921,7 +15921,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -15944,7 +15944,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -15967,7 +15967,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -15990,7 +15990,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16036,7 +16036,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16055,7 +16055,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16076,7 +16076,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16099,7 +16099,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16122,7 +16122,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16168,7 +16168,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16191,7 +16191,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16214,7 +16214,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16237,7 +16237,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16283,7 +16283,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16306,7 +16306,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16352,7 +16352,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16398,7 +16398,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16440,7 +16440,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16465,7 +16465,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16488,7 +16488,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16557,7 +16557,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16576,7 +16576,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16601,7 +16601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16624,7 +16624,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16643,7 +16643,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16662,7 +16662,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16681,7 +16681,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16702,7 +16702,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16748,7 +16748,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -16817,7 +16817,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -16840,7 +16840,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -16886,7 +16886,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -16932,7 +16932,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -16951,7 +16951,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -16974,7 +16974,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -16993,7 +16993,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17018,7 +17018,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17041,7 +17041,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17064,7 +17064,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17087,7 +17087,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17110,7 +17110,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17156,7 +17156,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17179,7 +17179,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17202,7 +17202,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17225,7 +17225,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17248,7 +17248,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17267,7 +17267,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17309,7 +17309,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17330,7 +17330,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17349,7 +17349,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17370,7 +17370,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17389,7 +17389,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17410,7 +17410,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17429,7 +17429,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17452,7 +17452,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17471,7 +17471,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17496,7 +17496,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17519,7 +17519,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17542,7 +17542,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17565,7 +17565,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17588,7 +17588,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17611,7 +17611,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17634,7 +17634,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17680,7 +17680,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17699,7 +17699,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17722,7 +17722,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17745,7 +17745,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17768,7 +17768,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17791,7 +17791,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -17810,7 +17810,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -17856,7 +17856,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -17881,7 +17881,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -17900,7 +17900,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -17925,7 +17925,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -17948,7 +17948,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -17967,7 +17967,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -17988,7 +17988,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18009,7 +18009,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18051,7 +18051,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18070,7 +18070,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18095,7 +18095,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18120,7 +18120,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18217,7 +18217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18257,7 +18257,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18280,7 +18280,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18360,7 +18360,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18423,7 +18423,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18452,7 +18452,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18491,7 +18491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18505,7 +18505,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18579,7 +18579,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18599,7 +18599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18699,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18719,7 +18719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18789,7 +18789,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18815,7 +18815,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18856,7 +18856,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18870,7 +18870,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18943,17 +18943,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
+    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>649</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1">
+    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>592</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1">
+    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>594</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
+    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>596</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="22" customFormat="1">
+    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>598</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1">
+    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>600</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>440</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="22" customFormat="1">
+    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>603</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="22" customFormat="1">
+    <row r="10" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>605</v>
       </c>
@@ -19123,11 +19123,11 @@
         <v>732</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="22" customFormat="1"/>
-    <row r="12" spans="1:7" s="22" customFormat="1"/>
-    <row r="13" spans="1:7" s="22" customFormat="1"/>
-    <row r="14" spans="1:7" s="22" customFormat="1"/>
-    <row r="15" spans="1:7">
+    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>572</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>456</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -19166,8 +19166,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="22" customFormat="1"/>
-    <row r="20" spans="1:21">
+    <row r="18" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>551</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -19275,7 +19275,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>544</v>
       </c>
@@ -19307,7 +19307,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>553</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>552</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>554</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>555</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L28" s="1" t="s">
         <v>560</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L29" s="1" t="s">
         <v>561</v>
       </c>
@@ -19451,7 +19451,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L30" s="1" t="s">
         <v>541</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L31" s="1" t="s">
         <v>543</v>
       </c>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1200" windowWidth="24396" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="734">
   <si>
     <t>type</t>
   </si>
@@ -1431,12 +1431,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1866,9 +1860,6 @@
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -2238,9 +2229,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>1.14.4</t>
-  </si>
-  <si>
     <t>triangle</t>
   </si>
   <si>
@@ -2251,6 +2239,9 @@
   </si>
   <si>
     <t>discrete</t>
+  </si>
+  <si>
+    <t>1.15.18</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2403,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1497">
+  <cellStyleXfs count="1501">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3910,8 +3901,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3944,9 +3939,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4013,7 +4005,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1497">
+  <cellStyles count="1501">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4762,6 +4754,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5510,6 +5504,8 @@
     <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5809,25 +5805,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="12"/>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -5835,99 +5831,99 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>727</v>
+      <c r="B3" s="17" t="s">
+        <v>724</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>730</v>
+      <c r="B4" s="16" t="s">
+        <v>727</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>732</v>
+        <v>468</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>733</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" s="24" t="str">
+      <c r="B7" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
         <v>Recommended for Server</v>
       </c>
-      <c r="D7" s="24" t="str">
+      <c r="D7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores with 40 GB</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="C8" s="24" t="str">
+      <c r="C8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
         <v>Server or Worker - Recommended for Worker</v>
       </c>
-      <c r="D8" s="24" t="str">
+      <c r="D8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>8 Cores with 80 GB</v>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$0.42/hour</v>
       </c>
@@ -5935,422 +5931,396 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="E9" s="24" t="str">
+      <c r="D9" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="E9" s="23" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>713</v>
+      <c r="B12" s="16" t="s">
+        <v>710</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="22" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B15" s="18" t="b">
-        <v>1</v>
+      <c r="B15" s="17" t="s">
+        <v>464</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B16" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="22" customFormat="1">
+      <c r="B20" s="17"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A21" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="C23" s="6" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>Sample Method</v>
+      </c>
+      <c r="B22" s="17" t="str">
+        <f>IF(D22&lt;&gt;"",D22,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>all_variables</v>
+      </c>
+      <c r="C22" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v>individual_variables / all_variables</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="28">
+      <c r="A23" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>Number of Samples</v>
+      </c>
+      <c r="B23" s="17">
+        <v>100</v>
+      </c>
+      <c r="C23" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v>positive integer (if individual, total simulations is this times each variable)</v>
+      </c>
+      <c r="D23" s="26">
+        <v>40</v>
+      </c>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B24" s="17" t="str">
+        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C24" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" s="22" customFormat="1">
+      <c r="A25" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B25" s="17" t="str">
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C25" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" s="22" customFormat="1">
+      <c r="A26" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B26" s="17" t="str">
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C26" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" s="22" customFormat="1">
+      <c r="A27" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B27" s="17" t="str">
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C27" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" s="22" customFormat="1">
+      <c r="A28" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B28" s="17" t="str">
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C28" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" s="22" customFormat="1">
+      <c r="A29" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B29" s="17" t="str">
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C29" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" s="22" customFormat="1">
+      <c r="A30" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B30" s="17" t="str">
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C30" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B31" s="17" t="str">
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C31" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" s="22" customFormat="1">
+      <c r="A32" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B32" s="17" t="str">
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C32" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" s="22" customFormat="1">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28">
+      <c r="A38" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Sample Method</v>
-      </c>
-      <c r="B24" s="18" t="str">
-        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>all_variables</v>
-      </c>
-      <c r="C24" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>individual_variables / all_variables</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Number of Samples</v>
-      </c>
-      <c r="B25" s="18">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>100</v>
-      </c>
-      <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>positive integer (if individual, total simulations is this times each variable)</v>
-      </c>
-      <c r="D25" s="27">
-        <v>100</v>
-      </c>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B26" s="18" t="str">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B27" s="18" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B28" s="18" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B29" s="18" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B30" s="18" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>AnalysisType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>Workflow</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -6371,225 +6341,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1"/>
-    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="1"/>
+    <col min="25" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+    <row r="1" spans="1:26" ht="18">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="32" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
+      <c r="A2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+    </row>
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>642</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="P3" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33" t="s">
+      <c r="Q3" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>548</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-    </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="R3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="34"/>
+    </row>
+    <row r="4" spans="1:26" s="28" customFormat="1">
+      <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>645</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="35"/>
-    </row>
-    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-    </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+    </row>
+    <row r="5" spans="1:26" s="21" customFormat="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6613,12 +6583,12 @@
         <v>82</v>
       </c>
       <c r="K5" s="15"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
@@ -6629,61 +6599,61 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="1:26" s="27" customFormat="1">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42" t="s">
-        <v>718</v>
-      </c>
-      <c r="E6" s="42" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="s">
+        <v>715</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42">
-        <v>0</v>
-      </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43">
-        <v>0</v>
-      </c>
-      <c r="L6" s="43">
+      <c r="H6" s="41"/>
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42">
+        <v>0</v>
+      </c>
+      <c r="L6" s="42">
         <v>70</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="42">
         <v>20</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="42">
         <v>11.66666667</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="42" t="s">
-        <v>733</v>
-      </c>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-    </row>
-    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="41" t="s">
+        <v>729</v>
+      </c>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+    </row>
+    <row r="7" spans="1:26" s="27" customFormat="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -6698,13 +6668,13 @@
         <v>150</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
@@ -6715,7 +6685,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="21" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6736,13 +6706,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -6753,7 +6723,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="21" customFormat="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6774,13 +6744,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="15"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
@@ -6791,7 +6761,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="21" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6812,13 +6782,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -6829,7 +6799,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="21" customFormat="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -6850,13 +6820,13 @@
         <v>15</v>
       </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
@@ -6867,7 +6837,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="28" customFormat="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -6888,13 +6858,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="15"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
@@ -6905,7 +6875,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="27" customFormat="1">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -6926,13 +6896,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="15"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
@@ -6943,179 +6913,179 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="b">
+    <row r="14" spans="1:26" s="21" customFormat="1">
+      <c r="A14" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-    </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+    </row>
+    <row r="15" spans="1:26" s="21" customFormat="1">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42" t="s">
-        <v>719</v>
-      </c>
-      <c r="E15" s="42" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
+        <v>716</v>
+      </c>
+      <c r="E15" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42">
-        <v>0</v>
-      </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42">
-        <v>0</v>
-      </c>
-      <c r="L15" s="42">
+      <c r="H15" s="41"/>
+      <c r="I15" s="41">
+        <v>0</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41">
+        <v>0</v>
+      </c>
+      <c r="L15" s="41">
         <v>359</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="41">
         <v>180</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="42">
         <v>59.833333330000002</v>
       </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="42" t="s">
-        <v>734</v>
-      </c>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-    </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="b">
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+    </row>
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="15">
+      <c r="A16" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-    </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+    </row>
+    <row r="17" spans="1:26" s="27" customFormat="1" ht="15">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="E17" s="46" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46">
+      <c r="H17" s="45"/>
+      <c r="I17" s="45">
         <v>13</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="42">
-        <v>0</v>
-      </c>
-      <c r="L17" s="42">
+      <c r="J17" s="45"/>
+      <c r="K17" s="41">
+        <v>0</v>
+      </c>
+      <c r="L17" s="41">
         <v>50</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="45">
         <v>25</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="42">
         <v>8.3333333330000006</v>
       </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42" t="s">
-        <v>735</v>
-      </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-    </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O17" s="42"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41" t="s">
+        <v>731</v>
+      </c>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+    </row>
+    <row r="18" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7153,7 +7123,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7191,7 +7161,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7229,97 +7199,97 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="b">
+    <row r="21" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A21" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-    </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46" t="s">
-        <v>721</v>
-      </c>
-      <c r="E22" s="46" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="E22" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46">
+      <c r="H22" s="45"/>
+      <c r="I22" s="45">
         <v>10</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="42">
+      <c r="J22" s="45"/>
+      <c r="K22" s="41">
         <v>10</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="41">
         <v>80</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="45">
         <v>50</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="41">
         <v>10</v>
       </c>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>723</v>
-      </c>
-      <c r="R22" s="42" t="s">
-        <v>736</v>
-      </c>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-    </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O22" s="41"/>
+      <c r="P22" s="41" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q22" s="41" t="s">
+        <v>720</v>
+      </c>
+      <c r="R22" s="41" t="s">
+        <v>732</v>
+      </c>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+    </row>
+    <row r="23" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7357,7 +7327,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7395,7 +7365,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7433,93 +7403,93 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="b">
+    <row r="26" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A26" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="44" t="s">
+        <v>722</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-    </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+    </row>
+    <row r="27" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46" t="s">
-        <v>711</v>
-      </c>
-      <c r="E27" s="46" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46" t="s">
+      <c r="F27" s="45"/>
+      <c r="G27" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46">
+      <c r="H27" s="45"/>
+      <c r="I27" s="45">
         <v>0.4</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="42">
+      <c r="J27" s="45"/>
+      <c r="K27" s="41">
         <v>0.05</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="41">
         <v>0.95</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="45">
         <v>0.4</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="42">
         <v>0.15</v>
       </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42" t="s">
-        <v>733</v>
-      </c>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-    </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O27" s="42"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41" t="s">
+        <v>729</v>
+      </c>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+    </row>
+    <row r="28" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7557,7 +7527,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7575,7 +7545,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>83</v>
@@ -7597,93 +7567,93 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="b">
+    <row r="30" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A30" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="C30" s="39" t="s">
+      <c r="B30" s="44" t="s">
+        <v>723</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-    </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46" t="s">
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+    </row>
+    <row r="31" spans="1:26" s="21" customFormat="1" ht="15">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="E31" s="46" t="s">
+      <c r="C31" s="45"/>
+      <c r="D31" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="E31" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46" t="s">
+      <c r="F31" s="45"/>
+      <c r="G31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46">
+      <c r="H31" s="45"/>
+      <c r="I31" s="45">
         <v>0.4</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="42">
+      <c r="J31" s="45"/>
+      <c r="K31" s="41">
         <v>0.05</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="41">
         <v>0.95</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="45">
         <v>0.4</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="42">
         <v>0.15</v>
       </c>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42" t="s">
-        <v>733</v>
-      </c>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-    </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O31" s="42"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41" t="s">
+        <v>729</v>
+      </c>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+    </row>
+    <row r="32" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7721,7 +7691,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7739,7 +7709,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>83</v>
@@ -7761,95 +7731,95 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="b">
+    <row r="34" spans="1:26" s="27" customFormat="1">
+      <c r="A34" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-    </row>
-    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42" t="s">
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+    </row>
+    <row r="35" spans="1:26" s="21" customFormat="1">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="E35" s="42" t="s">
+      <c r="C35" s="41"/>
+      <c r="D35" s="41" t="s">
+        <v>721</v>
+      </c>
+      <c r="E35" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="42" t="s">
-        <v>702</v>
-      </c>
-      <c r="G35" s="42" t="s">
+      <c r="F35" s="41" t="s">
+        <v>699</v>
+      </c>
+      <c r="G35" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42">
+      <c r="H35" s="41"/>
+      <c r="I35" s="41">
         <v>0.5</v>
       </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42">
-        <v>0</v>
-      </c>
-      <c r="L35" s="42">
+      <c r="J35" s="41"/>
+      <c r="K35" s="41">
+        <v>0</v>
+      </c>
+      <c r="L35" s="41">
         <v>0.8</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="41">
         <v>0.5</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35" s="41">
         <v>0.133333333</v>
       </c>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42" t="s">
-        <v>734</v>
-      </c>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-    </row>
-    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+    </row>
+    <row r="36" spans="1:26" s="21" customFormat="1">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -7889,7 +7859,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="21" customFormat="1">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -7927,7 +7897,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="28" customFormat="1">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -7946,7 +7916,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -7965,45 +7935,45 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="45" t="b">
+    <row r="39" spans="1:26" s="27" customFormat="1" ht="15">
+      <c r="A39" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-    </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+    </row>
+    <row r="40" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -8043,7 +8013,7 @@
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>21</v>
@@ -8083,7 +8053,7 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
     </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -8111,7 +8081,7 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -8127,8 +8097,8 @@
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
@@ -8139,7 +8109,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" s="27" customFormat="1" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -8167,7 +8137,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -8195,7 +8165,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -8223,7 +8193,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -8251,7 +8221,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="28" customFormat="1" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -8279,7 +8249,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -8307,7 +8277,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="21" customFormat="1" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8335,7 +8305,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" customFormat="1" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8363,7 +8333,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" customFormat="1" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8391,7 +8361,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" customFormat="1" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8419,7 +8389,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" customFormat="1" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8447,7 +8417,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" customFormat="1" ht="15">
       <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8475,7 +8445,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8503,7 +8473,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" customFormat="1" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8516,11 +8486,11 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -8531,7 +8501,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8559,7 +8529,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8587,7 +8557,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8600,11 +8570,11 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
@@ -8615,7 +8585,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8643,7 +8613,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8671,7 +8641,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8684,11 +8654,11 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
@@ -8699,7 +8669,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -8727,7 +8697,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -8755,7 +8725,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8768,11 +8738,11 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
@@ -8783,7 +8753,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15">
       <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -8811,7 +8781,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -8839,7 +8809,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -8852,11 +8822,11 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
@@ -8867,7 +8837,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -8895,7 +8865,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8923,7 +8893,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8951,7 +8921,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -8966,8 +8936,8 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
@@ -8979,7 +8949,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9007,7 +8977,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9035,7 +9005,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9063,7 +9033,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9091,7 +9061,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9119,7 +9089,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9134,8 +9104,8 @@
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
       <c r="N79" s="10"/>
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
@@ -9147,7 +9117,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9175,7 +9145,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9203,7 +9173,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9231,7 +9201,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9259,7 +9229,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9287,7 +9257,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9315,7 +9285,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15">
       <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9330,8 +9300,8 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
@@ -9343,7 +9313,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9371,7 +9341,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9386,8 +9356,8 @@
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="15"/>
@@ -9399,7 +9369,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9414,8 +9384,8 @@
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
@@ -9427,7 +9397,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9455,7 +9425,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9470,8 +9440,8 @@
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -9483,7 +9453,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9511,7 +9481,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9526,8 +9496,8 @@
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
@@ -9539,7 +9509,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9567,7 +9537,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9582,8 +9552,8 @@
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
@@ -9595,7 +9565,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9623,7 +9593,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9638,8 +9608,8 @@
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
       <c r="Q97" s="15"/>
       <c r="R97" s="15"/>
       <c r="S97" s="15"/>
@@ -9651,7 +9621,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9703,134 +9673,134 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="18">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
+      <c r="A2" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>646</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="34" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="L2" s="34" t="s">
         <v>622</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+      <c r="A3" s="34" t="s">
         <v>623</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="B3" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>625</v>
       </c>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
         <v>626</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>647</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="G3" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>627</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="K3" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35" t="s">
+      <c r="M3" s="34" t="s">
         <v>629</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="J3" s="37" t="s">
+    </row>
+    <row r="4" spans="1:13" s="22" customFormat="1">
+      <c r="A4" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>630</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="B4" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="D4" s="15" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>635</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>63</v>
@@ -9849,21 +9819,21 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="22" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>63</v>
@@ -9882,21 +9852,21 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="22" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>63</v>
@@ -9915,21 +9885,21 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="22" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>63</v>
@@ -9948,17 +9918,17 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="22" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>63</v>
@@ -9977,17 +9947,17 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="22" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>63</v>
@@ -10006,17 +9976,17 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="22" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>63</v>
@@ -10035,17 +10005,17 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="22" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>63</v>
@@ -10064,17 +10034,17 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="22" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>63</v>
@@ -10093,17 +10063,17 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="22" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>63</v>
@@ -10122,17 +10092,17 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="22" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>63</v>
@@ -10151,17 +10121,17 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>63</v>
@@ -10180,17 +10150,17 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>63</v>
@@ -10209,17 +10179,17 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="21" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>63</v>
@@ -10238,17 +10208,17 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="21" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>63</v>
@@ -10267,17 +10237,17 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="21" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>63</v>
@@ -10296,17 +10266,17 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="21" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>63</v>
@@ -10325,17 +10295,17 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="21" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>63</v>
@@ -10354,17 +10324,17 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="21" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>63</v>
@@ -10383,17 +10353,17 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="22" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>63</v>
@@ -10412,17 +10382,17 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="22" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>63</v>
@@ -10441,17 +10411,17 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="22" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>63</v>
@@ -10470,17 +10440,17 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="22" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>63</v>
@@ -10499,7 +10469,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10514,7 +10484,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10529,7 +10499,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -10544,7 +10514,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -10559,203 +10529,203 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="22"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="22"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="22"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="22"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="22"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="22"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="22"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="22"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="22"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="22"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="22"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="22"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="22"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="22"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="22"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="22"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="22"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="22"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="22"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="22"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="22"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="22"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="22"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="22"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="22"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="22"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="22"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="22"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="22"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="22"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="22"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="22"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="22"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="22"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="22"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="22"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="22"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="22"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="22"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="22"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="22"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="22"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="22"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="22"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="22"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="22"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="22"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="22"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="22"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="22"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="22"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="22"/>
+    <row r="31" spans="1:13">
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="21"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="21"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="21"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="21"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="21"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="21"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="21"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="21"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="21"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="21"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="21"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="21"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="21"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="21"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="21"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="21"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="21"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="21"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="21"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="21"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="21"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="21"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="21"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="21"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="21"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="21"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="21"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="21"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="21"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="21"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="21"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="21"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="21"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="21"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="21"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="21"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="21"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="21"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="21"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="21"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="21"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="21"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="21"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="21"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="21"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="21"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="21"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="21"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="21"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="21"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="21"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="21"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="21"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="21"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10776,19 +10746,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -10807,7 +10777,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -10828,7 +10798,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -10851,7 +10821,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -10874,7 +10844,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -10897,7 +10867,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -10920,7 +10890,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -10943,7 +10913,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -10966,7 +10936,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -10989,7 +10959,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11012,7 +10982,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11031,7 +11001,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11052,7 +11022,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11075,7 +11045,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11098,7 +11068,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11121,7 +11091,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11144,7 +11114,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11167,7 +11137,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11190,7 +11160,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11213,7 +11183,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11236,7 +11206,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11255,7 +11225,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11278,7 +11248,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11301,7 +11271,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11324,7 +11294,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11347,7 +11317,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11370,7 +11340,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11393,7 +11363,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11416,7 +11386,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11439,7 +11409,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11462,7 +11432,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11481,7 +11451,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11502,7 +11472,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11525,7 +11495,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11548,7 +11518,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11571,7 +11541,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11594,7 +11564,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11617,7 +11587,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11640,7 +11610,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11663,7 +11633,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11686,7 +11656,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11705,7 +11675,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11726,7 +11696,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11749,7 +11719,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11772,7 +11742,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11795,7 +11765,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -11818,7 +11788,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -11841,7 +11811,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -11864,7 +11834,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -11887,7 +11857,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -11910,7 +11880,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -11929,7 +11899,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -11950,7 +11920,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -11973,7 +11943,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -11996,7 +11966,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12019,7 +11989,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12042,7 +12012,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12065,7 +12035,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12088,7 +12058,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12111,7 +12081,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12134,7 +12104,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12153,7 +12123,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12174,7 +12144,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12199,7 +12169,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12222,7 +12192,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12245,7 +12215,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12268,7 +12238,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12291,7 +12261,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12314,7 +12284,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12337,7 +12307,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12360,7 +12330,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12383,7 +12353,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12402,7 +12372,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12423,7 +12393,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12446,7 +12416,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12471,7 +12441,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12494,7 +12464,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12517,7 +12487,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12540,7 +12510,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12563,7 +12533,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12586,7 +12556,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12609,7 +12579,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12632,7 +12602,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12655,7 +12625,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12678,7 +12648,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12701,7 +12671,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12720,7 +12690,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12743,7 +12713,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12766,7 +12736,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12789,7 +12759,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -12812,7 +12782,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -12835,7 +12805,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -12858,7 +12828,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -12881,7 +12851,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -12904,7 +12874,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -12927,7 +12897,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -12950,7 +12920,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -12969,7 +12939,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -12994,7 +12964,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13013,7 +12983,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13034,7 +13004,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13059,7 +13029,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13078,7 +13048,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13101,7 +13071,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13126,7 +13096,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13149,7 +13119,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13170,7 +13140,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13189,7 +13159,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13214,7 +13184,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13237,7 +13207,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13260,7 +13230,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13283,7 +13253,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13306,7 +13276,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13329,7 +13299,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13352,7 +13322,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13371,7 +13341,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13394,7 +13364,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13417,7 +13387,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13440,7 +13410,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13459,7 +13429,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13482,7 +13452,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13505,7 +13475,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13528,7 +13498,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13551,7 +13521,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13574,7 +13544,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13597,7 +13567,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13616,7 +13586,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13641,7 +13611,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13664,7 +13634,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13687,7 +13657,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13710,7 +13680,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13733,7 +13703,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13756,7 +13726,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13779,7 +13749,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -13802,7 +13772,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -13825,7 +13795,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -13844,7 +13814,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -13869,7 +13839,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -13890,7 +13860,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -13913,7 +13883,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -13936,7 +13906,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -13959,7 +13929,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -13982,7 +13952,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14005,7 +13975,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14028,7 +13998,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14051,7 +14021,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14074,7 +14044,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14097,7 +14067,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14120,7 +14090,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14143,7 +14113,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14166,7 +14136,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14185,7 +14155,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14208,7 +14178,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14227,7 +14197,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14250,7 +14220,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14273,7 +14243,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14292,7 +14262,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14317,7 +14287,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14340,7 +14310,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14363,7 +14333,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14386,7 +14356,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14409,7 +14379,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14432,7 +14402,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14455,7 +14425,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14478,7 +14448,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14501,7 +14471,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14524,7 +14494,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14543,7 +14513,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14568,7 +14538,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14591,7 +14561,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14614,7 +14584,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14637,7 +14607,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14660,7 +14630,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14683,7 +14653,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14706,7 +14676,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14729,7 +14699,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14752,7 +14722,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14775,7 +14745,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14794,7 +14764,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -14817,7 +14787,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -14840,7 +14810,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -14863,7 +14833,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -14886,7 +14856,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -14905,7 +14875,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -14928,7 +14898,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -14951,7 +14921,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -14974,7 +14944,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -14997,7 +14967,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15016,7 +14986,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15037,7 +15007,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15060,7 +15030,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15079,7 +15049,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15102,7 +15072,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15127,7 +15097,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15148,7 +15118,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15173,7 +15143,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15198,7 +15168,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15217,7 +15187,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15242,7 +15212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15265,7 +15235,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15288,7 +15258,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15311,7 +15281,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15334,7 +15304,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15357,7 +15327,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15380,7 +15350,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15403,7 +15373,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15426,7 +15396,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15445,7 +15415,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15470,7 +15440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15493,7 +15463,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15516,7 +15486,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15539,7 +15509,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15562,7 +15532,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15585,7 +15555,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15608,7 +15578,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15631,7 +15601,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15654,7 +15624,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15673,7 +15643,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15694,7 +15664,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15717,7 +15687,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15740,7 +15710,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15763,7 +15733,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15786,7 +15756,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -15809,7 +15779,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -15832,7 +15802,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -15855,7 +15825,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -15878,7 +15848,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -15901,7 +15871,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -15924,7 +15894,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -15947,7 +15917,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -15970,7 +15940,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -15993,7 +15963,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16016,7 +15986,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16039,7 +16009,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16058,7 +16028,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16079,7 +16049,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16102,7 +16072,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16125,7 +16095,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16148,7 +16118,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16171,7 +16141,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16194,7 +16164,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16217,7 +16187,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16240,7 +16210,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16263,7 +16233,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16286,7 +16256,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16309,7 +16279,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16332,7 +16302,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16355,7 +16325,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16378,7 +16348,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16401,7 +16371,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16424,7 +16394,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16443,7 +16413,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16468,7 +16438,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16491,7 +16461,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16514,7 +16484,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16537,7 +16507,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16560,7 +16530,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16579,7 +16549,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16604,7 +16574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16627,7 +16597,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16646,7 +16616,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16665,7 +16635,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16684,7 +16654,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16705,7 +16675,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16728,7 +16698,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16751,7 +16721,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16774,7 +16744,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -16797,7 +16767,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -16820,7 +16790,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -16843,7 +16813,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -16866,7 +16836,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -16889,7 +16859,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -16912,7 +16882,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -16935,7 +16905,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -16954,7 +16924,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -16977,7 +16947,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -16996,7 +16966,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17021,7 +16991,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17044,7 +17014,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17067,7 +17037,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17090,7 +17060,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17113,7 +17083,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17136,7 +17106,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17159,7 +17129,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17182,7 +17152,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17205,7 +17175,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17228,7 +17198,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17251,7 +17221,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17270,7 +17240,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17293,7 +17263,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17312,7 +17282,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17333,7 +17303,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17352,7 +17322,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17373,7 +17343,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17392,7 +17362,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17413,7 +17383,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17432,7 +17402,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17455,7 +17425,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17474,7 +17444,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17499,7 +17469,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17522,7 +17492,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17545,7 +17515,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17568,7 +17538,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17591,7 +17561,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17614,7 +17584,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17637,7 +17607,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17660,7 +17630,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17683,7 +17653,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17702,7 +17672,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17725,7 +17695,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17748,7 +17718,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17771,7 +17741,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17794,7 +17764,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -17813,7 +17783,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -17836,7 +17806,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -17859,7 +17829,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -17884,7 +17854,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -17903,7 +17873,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -17928,7 +17898,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -17951,7 +17921,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -17970,7 +17940,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -17991,7 +17961,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18012,7 +17982,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18035,7 +18005,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18054,7 +18024,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18073,7 +18043,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18098,7 +18068,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18123,29 +18093,29 @@
         <v>433</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C328" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D328" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D329" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -18154,21 +18124,21 @@
         <v>61</v>
       </c>
       <c r="H329" t="s">
+        <v>480</v>
+      </c>
+      <c r="I329" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="B330" t="s">
+        <v>21</v>
+      </c>
+      <c r="C330" t="s">
         <v>482</v>
       </c>
-      <c r="I329" t="s">
+      <c r="D330" t="s">
         <v>483</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B330" t="s">
-        <v>21</v>
-      </c>
-      <c r="C330" t="s">
-        <v>484</v>
-      </c>
-      <c r="D330" t="s">
-        <v>485</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -18180,15 +18150,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D331" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -18200,15 +18170,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D332" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -18220,15 +18190,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D333" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -18237,15 +18207,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D334" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -18254,21 +18224,21 @@
         <v>61</v>
       </c>
       <c r="H334" t="s">
+        <v>492</v>
+      </c>
+      <c r="I334" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="B335" t="s">
+        <v>21</v>
+      </c>
+      <c r="C335" t="s">
         <v>494</v>
       </c>
-      <c r="I334" t="s">
+      <c r="D335" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B335" t="s">
-        <v>21</v>
-      </c>
-      <c r="C335" t="s">
-        <v>496</v>
-      </c>
-      <c r="D335" t="s">
-        <v>497</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -18277,35 +18247,35 @@
         <v>61</v>
       </c>
       <c r="H335" t="s">
+        <v>496</v>
+      </c>
+      <c r="I335" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="b">
+        <v>0</v>
+      </c>
+      <c r="B336" t="s">
         <v>498</v>
       </c>
-      <c r="I335" t="s">
+      <c r="C336" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A336" t="b">
-        <v>0</v>
-      </c>
-      <c r="B336" t="s">
-        <v>500</v>
-      </c>
-      <c r="C336" t="s">
-        <v>501</v>
       </c>
       <c r="D336" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D337" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -18314,21 +18284,21 @@
         <v>61</v>
       </c>
       <c r="H337" t="s">
+        <v>502</v>
+      </c>
+      <c r="I337" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16">
+      <c r="B338" t="s">
+        <v>21</v>
+      </c>
+      <c r="C338" t="s">
+        <v>490</v>
+      </c>
+      <c r="D338" t="s">
         <v>504</v>
-      </c>
-      <c r="I337" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B338" t="s">
-        <v>21</v>
-      </c>
-      <c r="C338" t="s">
-        <v>492</v>
-      </c>
-      <c r="D338" t="s">
-        <v>506</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -18337,21 +18307,21 @@
         <v>61</v>
       </c>
       <c r="H338" t="s">
+        <v>505</v>
+      </c>
+      <c r="I338" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16">
+      <c r="B339" t="s">
+        <v>21</v>
+      </c>
+      <c r="C339" t="s">
         <v>507</v>
       </c>
-      <c r="I338" t="s">
+      <c r="D339" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B339" t="s">
-        <v>21</v>
-      </c>
-      <c r="C339" t="s">
-        <v>509</v>
-      </c>
-      <c r="D339" t="s">
-        <v>510</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -18363,15 +18333,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D340" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -18383,15 +18353,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D341" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -18400,15 +18370,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>67</v>
@@ -18426,16 +18396,16 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D343" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -18444,10 +18414,10 @@
         <v>61</v>
       </c>
       <c r="H343" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I343" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -18455,16 +18425,16 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D344" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -18494,29 +18464,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C345" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
       <c r="C346" t="s">
+        <v>519</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -18528,7 +18498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18542,7 +18512,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18562,7 +18532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18582,7 +18552,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18602,7 +18572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18622,7 +18592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18642,7 +18612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18662,7 +18632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18682,7 +18652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18702,7 +18672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18722,29 +18692,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C357" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D357" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D358" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -18756,15 +18726,15 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D359" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -18776,15 +18746,15 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>67</v>
@@ -18792,15 +18762,15 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D361" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -18810,24 +18780,24 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I361" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D362" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -18859,29 +18829,29 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C363" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D364" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -18893,29 +18863,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D366" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -18946,17 +18916,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -18967,184 +18937,184 @@
         <v>438</v>
       </c>
       <c r="D1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:7" s="21" customFormat="1">
+      <c r="A2" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="E2" s="21" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="21" customFormat="1">
+      <c r="A3" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E3" s="21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="21" customFormat="1">
+      <c r="A4" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E4" s="21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="21" customFormat="1">
+      <c r="A5" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="E5" s="21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="21" customFormat="1">
+      <c r="A6" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C6" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="E6" s="21" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="21" customFormat="1">
+      <c r="A7" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C7" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="21" customFormat="1">
+      <c r="A9" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="E9" s="21" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1">
+      <c r="A10" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="C10" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>658</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="21" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="21" customFormat="1"/>
+    <row r="12" spans="1:7" s="21" customFormat="1"/>
+    <row r="13" spans="1:7" s="21" customFormat="1"/>
+    <row r="14" spans="1:7" s="21" customFormat="1"/>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>569</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E15" t="s">
+        <v>554</v>
+      </c>
+      <c r="G15" t="s">
         <v>571</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="E15" t="s">
-        <v>556</v>
-      </c>
-      <c r="G15" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>455</v>
       </c>
@@ -19152,13 +19122,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>453</v>
       </c>
@@ -19166,66 +19136,66 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="21" customFormat="1"/>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O20" t="s">
-        <v>565</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G21" t="s">
         <v>455</v>
       </c>
       <c r="H21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J21" s="21">
+        <v>537</v>
+      </c>
+      <c r="J21" s="20">
         <v>0.01</v>
       </c>
-      <c r="K21" s="23" t="s">
-        <v>579</v>
+      <c r="K21" s="22" t="s">
+        <v>577</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M21">
         <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O21" t="s">
         <v>4</v>
@@ -19233,11 +19203,11 @@
       <c r="P21">
         <v>30</v>
       </c>
-      <c r="Q21" s="22" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q21" s="21" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -19248,229 +19218,229 @@
         <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J22" s="21">
+        <v>542</v>
+      </c>
+      <c r="J22" s="20">
         <v>0.01</v>
       </c>
       <c r="K22" t="s">
-        <v>578</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>566</v>
+        <v>576</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>564</v>
       </c>
       <c r="M22">
         <v>5</v>
       </c>
-      <c r="N22" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>566</v>
+      <c r="N22" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>564</v>
       </c>
       <c r="P22">
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="J23" s="21">
+        <v>557</v>
+      </c>
+      <c r="J23" s="20">
         <v>45036000000000</v>
       </c>
       <c r="K23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>585</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>567</v>
+        <v>583</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>565</v>
       </c>
       <c r="P23">
         <v>0.85</v>
       </c>
       <c r="Q23" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L24" t="s">
+        <v>580</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>581</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>549</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M25" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="N25" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>583</v>
-      </c>
-      <c r="O24" s="23" t="s">
+      <c r="O25" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>551</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J26" s="22">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>573</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="M26" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="O26" s="22" t="s">
         <v>568</v>
-      </c>
-      <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>551</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="M25" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>553</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="J26" s="23">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>575</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M26" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>570</v>
       </c>
       <c r="P26">
         <v>0.8</v>
       </c>
       <c r="Q26" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="M27" s="21">
+        <v>542</v>
+      </c>
+      <c r="M27" s="20">
         <v>0.01</v>
       </c>
-      <c r="N27" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="O27" s="23" t="s">
+      <c r="N27" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="L28" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="M28" s="20">
+        <v>45036000000000</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="O28" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="P27" s="23" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L28" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="M28" s="21">
-        <v>45036000000000</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="P28" s="23">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="22" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P28" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="L29" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M29" s="22">
+        <v>558</v>
+      </c>
+      <c r="M29" s="21">
         <v>100</v>
       </c>
-      <c r="N29" s="22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N29" s="21" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="L30" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="L31" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="M30" s="23" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L31" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="M31" s="23">
-        <v>2</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>575</v>
+      <c r="M31" s="22">
+        <v>2</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1200" windowWidth="24396" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="1200" yWindow="1200" windowWidth="24396" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="734">
   <si>
     <t>type</t>
   </si>
@@ -1431,12 +1431,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1866,9 +1860,6 @@
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -2238,9 +2229,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>1.14.4</t>
-  </si>
-  <si>
     <t>triangle</t>
   </si>
   <si>
@@ -2251,6 +2239,9 @@
   </si>
   <si>
     <t>discrete</t>
+  </si>
+  <si>
+    <t>1.17.0</t>
   </si>
 </sst>
 </file>
@@ -3911,7 +3902,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3944,9 +3935,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5809,16 +5797,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
@@ -5827,7 +5815,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -5839,7 +5827,7 @@
       <c r="A2" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -5849,8 +5837,8 @@
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>727</v>
+      <c r="B3" s="17" t="s">
+        <v>724</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>436</v>
@@ -5860,8 +5848,8 @@
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>730</v>
+      <c r="B4" s="16" t="s">
+        <v>727</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>458</v>
@@ -5869,65 +5857,65 @@
     </row>
     <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>732</v>
+        <v>468</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>733</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" s="24" t="str">
+      <c r="B7" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
         <v>Recommended for Server</v>
       </c>
-      <c r="D7" s="24" t="str">
+      <c r="D7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores with 40 GB</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="23" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="C8" s="24" t="str">
+      <c r="C8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
         <v>Server or Worker - Recommended for Worker</v>
       </c>
-      <c r="D8" s="24" t="str">
+      <c r="D8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>8 Cores with 80 GB</v>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="23" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$0.42/hour</v>
       </c>
@@ -5939,26 +5927,26 @@
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="E9" s="24" t="str">
+      <c r="D9" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="E9" s="23" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -5968,389 +5956,364 @@
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>713</v>
+      <c r="B12" s="16" t="s">
+        <v>710</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>616</v>
+      <c r="B13" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>616</v>
+      <c r="F14" s="22" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B15" s="18" t="b">
-        <v>1</v>
+      <c r="B15" s="17" t="s">
+        <v>464</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B16" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="C23" s="6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>Sample Method</v>
+      </c>
+      <c r="B22" s="17" t="str">
+        <f>IF(D22&lt;&gt;"",D22,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>all_variables</v>
+      </c>
+      <c r="C22" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v>individual_variables / all_variables</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>Number of Samples</v>
+      </c>
+      <c r="B23" s="17">
+        <f>IF(D23&lt;&gt;"",D23,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v>positive integer (if individual, total simulations is this times each variable)</v>
+      </c>
+      <c r="D23" s="26">
+        <v>100</v>
+      </c>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B24" s="17" t="str">
+        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C24" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B25" s="17" t="str">
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C25" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B26" s="17" t="str">
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C26" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B27" s="17" t="str">
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C27" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B28" s="17" t="str">
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C28" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B29" s="17" t="str">
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C29" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B30" s="17" t="str">
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C30" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B31" s="17" t="str">
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C31" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B32" s="17" t="str">
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C32" s="24" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Sample Method</v>
-      </c>
-      <c r="B24" s="18" t="str">
-        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>all_variables</v>
-      </c>
-      <c r="C24" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>individual_variables / all_variables</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Number of Samples</v>
-      </c>
-      <c r="B25" s="18">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>100</v>
-      </c>
-      <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>positive integer (if individual, total simulations is this times each variable)</v>
-      </c>
-      <c r="D25" s="27">
-        <v>100</v>
-      </c>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B26" s="18" t="str">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B27" s="18" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B28" s="18" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B29" s="18" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B30" s="18" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>AnalysisType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>Workflow</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -6371,7 +6334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -6382,7 +6345,7 @@
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
@@ -6402,194 +6365,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="32" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+    </row>
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>642</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="P3" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33" t="s">
+      <c r="Q3" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>548</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-    </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="R3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="34"/>
+    </row>
+    <row r="4" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>645</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="35"/>
-    </row>
-    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-    </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+    </row>
+    <row r="5" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6613,12 +6576,12 @@
         <v>82</v>
       </c>
       <c r="K5" s="15"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
@@ -6629,61 +6592,61 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42" t="s">
-        <v>718</v>
-      </c>
-      <c r="E6" s="42" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="s">
+        <v>715</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42">
-        <v>0</v>
-      </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43">
-        <v>0</v>
-      </c>
-      <c r="L6" s="43">
+      <c r="H6" s="41"/>
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42">
+        <v>0</v>
+      </c>
+      <c r="L6" s="42">
         <v>70</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="42">
         <v>20</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="42">
         <v>11.66666667</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="42" t="s">
-        <v>733</v>
-      </c>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-    </row>
-    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="41" t="s">
+        <v>729</v>
+      </c>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+    </row>
+    <row r="7" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -6698,13 +6661,13 @@
         <v>150</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
@@ -6715,7 +6678,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6736,13 +6699,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -6753,7 +6716,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6774,13 +6737,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="15"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
@@ -6791,7 +6754,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6812,13 +6775,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -6829,7 +6792,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -6850,13 +6813,13 @@
         <v>15</v>
       </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
@@ -6867,7 +6830,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -6888,13 +6851,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="15"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
@@ -6905,7 +6868,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -6926,13 +6889,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="15"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
@@ -6943,179 +6906,179 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="b">
+    <row r="14" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-    </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+    </row>
+    <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42" t="s">
-        <v>719</v>
-      </c>
-      <c r="E15" s="42" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
+        <v>716</v>
+      </c>
+      <c r="E15" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42">
-        <v>0</v>
-      </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42">
-        <v>0</v>
-      </c>
-      <c r="L15" s="42">
+      <c r="H15" s="41"/>
+      <c r="I15" s="41">
+        <v>0</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41">
+        <v>0</v>
+      </c>
+      <c r="L15" s="41">
         <v>359</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="41">
         <v>180</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="42">
         <v>59.833333330000002</v>
       </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="42" t="s">
-        <v>734</v>
-      </c>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-    </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="b">
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+    </row>
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-    </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+    </row>
+    <row r="17" spans="1:26" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="E17" s="46" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46">
+      <c r="H17" s="45"/>
+      <c r="I17" s="45">
         <v>13</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="42">
-        <v>0</v>
-      </c>
-      <c r="L17" s="42">
+      <c r="J17" s="45"/>
+      <c r="K17" s="41">
+        <v>0</v>
+      </c>
+      <c r="L17" s="41">
         <v>50</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="45">
         <v>25</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="42">
         <v>8.3333333330000006</v>
       </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42" t="s">
-        <v>735</v>
-      </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-    </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O17" s="42"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41" t="s">
+        <v>731</v>
+      </c>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+    </row>
+    <row r="18" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7153,7 +7116,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7191,7 +7154,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7229,97 +7192,97 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="b">
+    <row r="21" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-    </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46" t="s">
-        <v>721</v>
-      </c>
-      <c r="E22" s="46" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="E22" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46">
+      <c r="H22" s="45"/>
+      <c r="I22" s="45">
         <v>10</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="42">
+      <c r="J22" s="45"/>
+      <c r="K22" s="41">
         <v>10</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="41">
         <v>80</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="45">
         <v>50</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="41">
         <v>10</v>
       </c>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>723</v>
-      </c>
-      <c r="R22" s="42" t="s">
-        <v>736</v>
-      </c>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-    </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O22" s="41"/>
+      <c r="P22" s="41" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q22" s="41" t="s">
+        <v>720</v>
+      </c>
+      <c r="R22" s="41" t="s">
+        <v>732</v>
+      </c>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+    </row>
+    <row r="23" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7357,7 +7320,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7395,7 +7358,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7433,93 +7396,93 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="b">
+    <row r="26" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="44" t="s">
+        <v>722</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-    </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+    </row>
+    <row r="27" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46" t="s">
-        <v>711</v>
-      </c>
-      <c r="E27" s="46" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46" t="s">
+      <c r="F27" s="45"/>
+      <c r="G27" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46">
+      <c r="H27" s="45"/>
+      <c r="I27" s="45">
         <v>0.4</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="42">
+      <c r="J27" s="45"/>
+      <c r="K27" s="41">
         <v>0.05</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="41">
         <v>0.95</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="45">
         <v>0.4</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="42">
         <v>0.15</v>
       </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42" t="s">
-        <v>733</v>
-      </c>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-    </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O27" s="42"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41" t="s">
+        <v>729</v>
+      </c>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+    </row>
+    <row r="28" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7557,7 +7520,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7575,7 +7538,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>83</v>
@@ -7597,93 +7560,93 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="b">
+    <row r="30" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="C30" s="39" t="s">
+      <c r="B30" s="44" t="s">
+        <v>723</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-    </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46" t="s">
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+    </row>
+    <row r="31" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46" t="s">
-        <v>712</v>
-      </c>
-      <c r="E31" s="46" t="s">
+      <c r="C31" s="45"/>
+      <c r="D31" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="E31" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46" t="s">
+      <c r="F31" s="45"/>
+      <c r="G31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46">
+      <c r="H31" s="45"/>
+      <c r="I31" s="45">
         <v>0.4</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="42">
+      <c r="J31" s="45"/>
+      <c r="K31" s="41">
         <v>0.05</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="41">
         <v>0.95</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="45">
         <v>0.4</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="42">
         <v>0.15</v>
       </c>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42" t="s">
-        <v>733</v>
-      </c>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-    </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O31" s="42"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41" t="s">
+        <v>729</v>
+      </c>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+    </row>
+    <row r="32" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7721,7 +7684,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7739,7 +7702,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>83</v>
@@ -7761,95 +7724,95 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="b">
+    <row r="34" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-    </row>
-    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42" t="s">
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+    </row>
+    <row r="35" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="E35" s="42" t="s">
+      <c r="C35" s="41"/>
+      <c r="D35" s="41" t="s">
+        <v>721</v>
+      </c>
+      <c r="E35" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="42" t="s">
-        <v>702</v>
-      </c>
-      <c r="G35" s="42" t="s">
+      <c r="F35" s="41" t="s">
+        <v>699</v>
+      </c>
+      <c r="G35" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42">
+      <c r="H35" s="41"/>
+      <c r="I35" s="41">
         <v>0.5</v>
       </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42">
-        <v>0</v>
-      </c>
-      <c r="L35" s="42">
+      <c r="J35" s="41"/>
+      <c r="K35" s="41">
+        <v>0</v>
+      </c>
+      <c r="L35" s="41">
         <v>0.8</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="41">
         <v>0.5</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35" s="41">
         <v>0.133333333</v>
       </c>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42" t="s">
-        <v>734</v>
-      </c>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-    </row>
-    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+    </row>
+    <row r="36" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -7889,7 +7852,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -7927,7 +7890,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -7946,7 +7909,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -7965,45 +7928,45 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="45" t="b">
+    <row r="39" spans="1:26" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-    </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+    </row>
+    <row r="40" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -8043,7 +8006,7 @@
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>21</v>
@@ -8083,7 +8046,7 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
     </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -8111,7 +8074,7 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -8127,8 +8090,8 @@
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
@@ -8139,7 +8102,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -8167,7 +8130,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -8195,7 +8158,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -8223,7 +8186,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -8251,7 +8214,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -8279,7 +8242,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -8307,7 +8270,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8516,11 +8479,11 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -8600,11 +8563,11 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
@@ -8684,11 +8647,11 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
@@ -8768,11 +8731,11 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
@@ -8852,11 +8815,11 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
@@ -8966,8 +8929,8 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
@@ -9134,8 +9097,8 @@
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
       <c r="N79" s="10"/>
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
@@ -9330,8 +9293,8 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
@@ -9386,8 +9349,8 @@
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="15"/>
@@ -9414,8 +9377,8 @@
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
@@ -9470,8 +9433,8 @@
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -9526,8 +9489,8 @@
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
@@ -9582,8 +9545,8 @@
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
@@ -9638,8 +9601,8 @@
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
       <c r="Q97" s="15"/>
       <c r="R97" s="15"/>
       <c r="S97" s="15"/>
@@ -9706,7 +9669,7 @@
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
@@ -9721,116 +9684,116 @@
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>646</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="34" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="L2" s="34" t="s">
         <v>622</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>623</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="B3" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>625</v>
       </c>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
         <v>626</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>647</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="G3" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>627</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="K3" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35" t="s">
+      <c r="M3" s="34" t="s">
         <v>629</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="J3" s="37" t="s">
+    </row>
+    <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>630</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="B4" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="D4" s="15" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>635</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>63</v>
@@ -9849,21 +9812,21 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>63</v>
@@ -9882,21 +9845,21 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>63</v>
@@ -9915,21 +9878,21 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>63</v>
@@ -9948,17 +9911,17 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>63</v>
@@ -9977,17 +9940,17 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>63</v>
@@ -10006,17 +9969,17 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>63</v>
@@ -10035,17 +9998,17 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>63</v>
@@ -10064,17 +10027,17 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>63</v>
@@ -10093,17 +10056,17 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>63</v>
@@ -10122,17 +10085,17 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>63</v>
@@ -10151,17 +10114,17 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>63</v>
@@ -10180,17 +10143,17 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>63</v>
@@ -10209,17 +10172,17 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>63</v>
@@ -10238,17 +10201,17 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>63</v>
@@ -10267,17 +10230,17 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>63</v>
@@ -10296,17 +10259,17 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>63</v>
@@ -10325,17 +10288,17 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>63</v>
@@ -10354,17 +10317,17 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>63</v>
@@ -10383,17 +10346,17 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>63</v>
@@ -10412,17 +10375,17 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>63</v>
@@ -10441,17 +10404,17 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>63</v>
@@ -10470,17 +10433,17 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>63</v>
@@ -10560,202 +10523,202 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="22"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="22"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
+      <c r="B35" s="21"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
+      <c r="B36" s="21"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
+      <c r="B37" s="21"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="22"/>
+      <c r="B38" s="21"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
+      <c r="B39" s="21"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="22"/>
+      <c r="B40" s="21"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="22"/>
+      <c r="B41" s="21"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="22"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
+      <c r="B43" s="21"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
+      <c r="B44" s="21"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
+      <c r="B45" s="21"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
+      <c r="B46" s="21"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="21"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="22"/>
+      <c r="B48" s="21"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="22"/>
+      <c r="B49" s="21"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
+      <c r="B50" s="21"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="22"/>
+      <c r="B51" s="21"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="22"/>
+      <c r="B52" s="21"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="22"/>
+      <c r="B53" s="21"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="22"/>
+      <c r="B54" s="21"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="22"/>
+      <c r="B55" s="21"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="22"/>
+      <c r="B56" s="21"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="22"/>
+      <c r="B57" s="21"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="22"/>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
+      <c r="B59" s="21"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="22"/>
+      <c r="B60" s="21"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="22"/>
+      <c r="B61" s="21"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="22"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="22"/>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="22"/>
+      <c r="B64" s="21"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="22"/>
+      <c r="B65" s="21"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="22"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="22"/>
+      <c r="B67" s="21"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
+      <c r="B68" s="21"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="22"/>
+      <c r="B69" s="21"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="22"/>
+      <c r="B70" s="21"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="22"/>
+      <c r="B71" s="21"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="22"/>
+      <c r="B72" s="21"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="22"/>
+      <c r="B73" s="21"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="22"/>
+      <c r="B74" s="21"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="22"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="22"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="22"/>
+      <c r="B77" s="21"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="22"/>
+      <c r="B78" s="21"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="22"/>
+      <c r="B79" s="21"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="22"/>
+      <c r="B80" s="21"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="22"/>
+      <c r="B81" s="21"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="22"/>
+      <c r="B82" s="21"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="22"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="22"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="22"/>
+      <c r="B85" s="21"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="22"/>
+      <c r="B86" s="21"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="22"/>
+      <c r="B87" s="21"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="22"/>
+      <c r="B88" s="21"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="22"/>
+      <c r="B89" s="21"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="22"/>
+      <c r="B90" s="21"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="22"/>
+      <c r="B91" s="21"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="22"/>
+      <c r="B92" s="21"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="22"/>
+      <c r="B93" s="21"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="22"/>
+      <c r="B94" s="21"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="22"/>
+      <c r="B95" s="21"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="22"/>
+      <c r="B96" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18128,10 +18091,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C328" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D328" t="s">
         <v>67</v>
@@ -18142,10 +18105,10 @@
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D329" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -18154,10 +18117,10 @@
         <v>61</v>
       </c>
       <c r="H329" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I329" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -18165,10 +18128,10 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D330" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -18185,10 +18148,10 @@
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D331" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -18205,10 +18168,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D332" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -18225,10 +18188,10 @@
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D333" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -18242,10 +18205,10 @@
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D334" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -18254,10 +18217,10 @@
         <v>61</v>
       </c>
       <c r="H334" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I334" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -18265,10 +18228,10 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D335" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -18277,10 +18240,10 @@
         <v>61</v>
       </c>
       <c r="H335" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I335" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -18288,10 +18251,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C336" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D336" t="s">
         <v>67</v>
@@ -18302,10 +18265,10 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D337" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -18314,10 +18277,10 @@
         <v>61</v>
       </c>
       <c r="H337" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I337" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
@@ -18325,10 +18288,10 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D338" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -18337,10 +18300,10 @@
         <v>61</v>
       </c>
       <c r="H338" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I338" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
@@ -18348,10 +18311,10 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D339" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -18368,10 +18331,10 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D340" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -18388,10 +18351,10 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D341" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -18405,10 +18368,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>67</v>
@@ -18432,10 +18395,10 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D343" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -18444,10 +18407,10 @@
         <v>61</v>
       </c>
       <c r="H343" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I343" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -18461,10 +18424,10 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D344" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -18499,10 +18462,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C345" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>67</v>
@@ -18513,10 +18476,10 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
+        <v>519</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -18727,10 +18690,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C357" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D357" t="s">
         <v>67</v>
@@ -18741,10 +18704,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D358" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -18761,10 +18724,10 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D359" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -18781,10 +18744,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>67</v>
@@ -18797,10 +18760,10 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D361" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -18810,10 +18773,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I361" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -18824,10 +18787,10 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D362" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -18864,10 +18827,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C363" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>67</v>
@@ -18878,10 +18841,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D364" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -18898,10 +18861,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>67</v>
@@ -18912,10 +18875,10 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D366" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -18967,181 +18930,181 @@
         <v>438</v>
       </c>
       <c r="D1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="E2" s="21" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E3" s="21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E4" s="21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="E5" s="21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C6" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="E6" s="21" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C7" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="E9" s="21" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="C10" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>658</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="E10" s="21" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>569</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E15" t="s">
+        <v>554</v>
+      </c>
+      <c r="G15" t="s">
         <v>571</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="E15" t="s">
-        <v>556</v>
-      </c>
-      <c r="G15" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -19152,10 +19115,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -19166,66 +19129,66 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O20" t="s">
-        <v>565</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>554</v>
+        <v>563</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G21" t="s">
         <v>455</v>
       </c>
       <c r="H21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J21" s="21">
+        <v>537</v>
+      </c>
+      <c r="J21" s="20">
         <v>0.01</v>
       </c>
-      <c r="K21" s="23" t="s">
-        <v>579</v>
+      <c r="K21" s="22" t="s">
+        <v>577</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M21">
         <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O21" t="s">
         <v>4</v>
@@ -19233,8 +19196,8 @@
       <c r="P21">
         <v>30</v>
       </c>
-      <c r="Q21" s="22" t="s">
-        <v>581</v>
+      <c r="Q21" s="21" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -19248,229 +19211,229 @@
         <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J22" s="21">
+        <v>542</v>
+      </c>
+      <c r="J22" s="20">
         <v>0.01</v>
       </c>
       <c r="K22" t="s">
-        <v>578</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>566</v>
+        <v>576</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>564</v>
       </c>
       <c r="M22">
         <v>5</v>
       </c>
-      <c r="N22" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>566</v>
+      <c r="N22" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>564</v>
       </c>
       <c r="P22">
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="J23" s="21">
+        <v>557</v>
+      </c>
+      <c r="J23" s="20">
         <v>45036000000000</v>
       </c>
       <c r="K23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>585</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>567</v>
+        <v>583</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>565</v>
       </c>
       <c r="P23">
         <v>0.85</v>
       </c>
       <c r="Q23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M24">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>583</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>568</v>
+        <v>581</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>566</v>
       </c>
       <c r="P24">
         <v>2</v>
       </c>
       <c r="Q24" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>539</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="M25" s="21">
+        <v>562</v>
+      </c>
+      <c r="M25" s="20">
         <v>0.01</v>
       </c>
-      <c r="N25" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>569</v>
+      <c r="N25" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>567</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
-      <c r="Q25" s="22" t="s">
-        <v>589</v>
+      <c r="Q25" s="21" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="J26" s="23">
+        <v>540</v>
+      </c>
+      <c r="J26" s="22">
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M26" s="21">
+        <v>537</v>
+      </c>
+      <c r="M26" s="20">
         <v>0.01</v>
       </c>
-      <c r="N26" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>570</v>
+      <c r="N26" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>568</v>
       </c>
       <c r="P26">
         <v>0.8</v>
       </c>
       <c r="Q26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="M27" s="21">
+        <v>542</v>
+      </c>
+      <c r="M27" s="20">
         <v>0.01</v>
       </c>
-      <c r="N27" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>541</v>
+      <c r="N27" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L28" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="M28" s="21">
+        <v>557</v>
+      </c>
+      <c r="M28" s="20">
         <v>45036000000000</v>
       </c>
-      <c r="N28" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="P28" s="23">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="22" t="s">
+      <c r="N28" s="21" t="s">
         <v>575</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="P28" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L29" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M29" s="22">
+        <v>558</v>
+      </c>
+      <c r="M29" s="21">
         <v>100</v>
       </c>
-      <c r="N29" s="22" t="s">
-        <v>576</v>
+      <c r="N29" s="21" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L30" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L31" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="M31" s="23">
-        <v>2</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>575</v>
+        <v>540</v>
+      </c>
+      <c r="M31" s="22">
+        <v>2</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1200" windowWidth="24396" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="737">
   <si>
     <t>type</t>
   </si>
@@ -2242,6 +2242,15 @@
   </si>
   <si>
     <t>1.17.0</t>
+  </si>
+  <si>
+    <t>__SKIP__</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Skip Entire Measure</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2336,18 +2345,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3902,7 +3899,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3962,44 +3959,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1497">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5799,21 +5800,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="12"/>
       <c r="B1" s="19"/>
       <c r="C1" s="12"/>
@@ -5823,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>434</v>
       </c>
@@ -5833,7 +5834,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
         <v>468</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>469</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>441</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>442</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="7" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -5952,7 +5953,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -5985,7 +5986,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>463</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>465</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>452</v>
       </c>
@@ -6029,12 +6030,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="22" customFormat="1">
       <c r="B20" s="17"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A21" s="6" t="s">
         <v>450</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Sample Method</v>
@@ -6070,7 +6071,7 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="28">
       <c r="A23" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Number of Samples</v>
@@ -6088,7 +6089,7 @@
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6104,7 +6105,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="22" customFormat="1">
       <c r="A25" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6119,7 +6120,7 @@
       </c>
       <c r="D25" s="26"/>
     </row>
-    <row r="26" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="22" customFormat="1">
       <c r="A26" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6134,7 +6135,7 @@
       </c>
       <c r="D26" s="26"/>
     </row>
-    <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="22" customFormat="1">
       <c r="A27" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6149,7 +6150,7 @@
       </c>
       <c r="D27" s="26"/>
     </row>
-    <row r="28" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="22" customFormat="1">
       <c r="A28" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6164,7 +6165,7 @@
       </c>
       <c r="D28" s="26"/>
     </row>
-    <row r="29" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="22" customFormat="1">
       <c r="A29" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6179,7 +6180,7 @@
       </c>
       <c r="D29" s="26"/>
     </row>
-    <row r="30" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="22" customFormat="1">
       <c r="A30" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6194,7 +6195,7 @@
       </c>
       <c r="D30" s="26"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6210,7 +6211,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="22" customFormat="1">
       <c r="A32" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6225,13 +6226,13 @@
       </c>
       <c r="D32" s="26"/>
     </row>
-    <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="22" customFormat="1">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -6245,7 +6246,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
@@ -6271,7 +6272,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="28">
       <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
@@ -6288,7 +6289,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A40" s="6" t="s">
         <v>34</v>
       </c>
@@ -6332,227 +6333,228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1"/>
-    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="1"/>
+    <col min="25" max="26" width="11.5" style="1"/>
+    <col min="27" max="16384" width="11.5" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+    <row r="1" spans="1:26" ht="18">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="31" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="46" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+    </row>
+    <row r="2" spans="1:26" s="45" customFormat="1" ht="15">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>545</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-    </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" spans="1:26" s="46" customFormat="1" ht="45">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="35" t="s">
         <v>475</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="U3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="34"/>
-    </row>
-    <row r="4" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="b">
+      <c r="Z3" s="32"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-    </row>
-    <row r="5" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6576,12 +6578,12 @@
         <v>82</v>
       </c>
       <c r="K5" s="15"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
@@ -6592,61 +6594,61 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:26">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41">
-        <v>0</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42">
-        <v>0</v>
-      </c>
-      <c r="L6" s="42">
+      <c r="H6" s="39"/>
+      <c r="I6" s="39">
+        <v>0</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40">
+        <v>0</v>
+      </c>
+      <c r="L6" s="40">
         <v>70</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="40">
         <v>20</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="40">
         <v>11.66666667</v>
       </c>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="41" t="s">
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-    </row>
-    <row r="7" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -6661,13 +6663,13 @@
         <v>150</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
@@ -6678,7 +6680,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6699,13 +6701,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -6716,7 +6718,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6737,13 +6739,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="15"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
@@ -6754,7 +6756,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6775,13 +6777,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -6792,7 +6794,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -6813,13 +6815,13 @@
         <v>15</v>
       </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
@@ -6830,7 +6832,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -6851,13 +6853,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="15"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
@@ -6868,7 +6870,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -6889,13 +6891,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="15"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
@@ -6906,179 +6908,179 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="b">
+    <row r="14" spans="1:26">
+      <c r="A14" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-    </row>
-    <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41" t="s">
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41">
-        <v>0</v>
-      </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41">
-        <v>0</v>
-      </c>
-      <c r="L15" s="41">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39">
+        <v>0</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39">
+        <v>0</v>
+      </c>
+      <c r="L15" s="39">
         <v>359</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="39">
         <v>180</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="40">
         <v>59.833333330000002</v>
       </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="41" t="s">
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-    </row>
-    <row r="16" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="b">
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+    </row>
+    <row r="16" spans="1:26" ht="15">
+      <c r="A16" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-    </row>
-    <row r="17" spans="1:26" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+    </row>
+    <row r="17" spans="1:26" ht="15">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43" t="s">
         <v>717</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45" t="s">
+      <c r="F17" s="43"/>
+      <c r="G17" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45">
+      <c r="H17" s="43"/>
+      <c r="I17" s="43">
         <v>13</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="41">
-        <v>0</v>
-      </c>
-      <c r="L17" s="41">
+      <c r="J17" s="43"/>
+      <c r="K17" s="39">
+        <v>0</v>
+      </c>
+      <c r="L17" s="39">
         <v>50</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="43">
         <v>25</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="40">
         <v>8.3333333330000006</v>
       </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41" t="s">
+      <c r="O17" s="40"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-    </row>
-    <row r="18" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+    </row>
+    <row r="18" spans="1:26" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7116,7 +7118,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7154,7 +7156,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7192,97 +7194,97 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="b">
+    <row r="21" spans="1:26" ht="15">
+      <c r="A21" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-    </row>
-    <row r="22" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+    </row>
+    <row r="22" spans="1:26" ht="15">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="43" t="s">
         <v>718</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45">
+      <c r="H22" s="43"/>
+      <c r="I22" s="43">
         <v>10</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="41">
+      <c r="J22" s="43"/>
+      <c r="K22" s="39">
         <v>10</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="39">
         <v>80</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="43">
         <v>50</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="39">
         <v>10</v>
       </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41" t="s">
+      <c r="O22" s="39"/>
+      <c r="P22" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="Q22" s="41" t="s">
+      <c r="Q22" s="39" t="s">
         <v>720</v>
       </c>
-      <c r="R22" s="41" t="s">
+      <c r="R22" s="39" t="s">
         <v>732</v>
       </c>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-    </row>
-    <row r="23" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+    </row>
+    <row r="23" spans="1:26" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7320,7 +7322,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7358,7 +7360,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7396,93 +7398,93 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="b">
+    <row r="26" spans="1:26" ht="15">
+      <c r="A26" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>722</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-    </row>
-    <row r="27" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+    </row>
+    <row r="27" spans="1:26" ht="15">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45" t="s">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
         <v>708</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45" t="s">
+      <c r="F27" s="43"/>
+      <c r="G27" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45">
+      <c r="H27" s="43"/>
+      <c r="I27" s="43">
         <v>0.4</v>
       </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="41">
+      <c r="J27" s="43"/>
+      <c r="K27" s="39">
         <v>0.05</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="39">
         <v>0.95</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="43">
         <v>0.4</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N27" s="40">
         <v>0.15</v>
       </c>
-      <c r="O27" s="42"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41" t="s">
+      <c r="O27" s="40"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-    </row>
-    <row r="28" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+    </row>
+    <row r="28" spans="1:26" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7520,7 +7522,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7560,93 +7562,93 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="b">
+    <row r="30" spans="1:26" ht="15">
+      <c r="A30" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="42" t="s">
         <v>723</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-    </row>
-    <row r="31" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+    </row>
+    <row r="31" spans="1:26" ht="15">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43" t="s">
         <v>709</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45" t="s">
+      <c r="F31" s="43"/>
+      <c r="G31" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45">
+      <c r="H31" s="43"/>
+      <c r="I31" s="43">
         <v>0.4</v>
       </c>
-      <c r="J31" s="45"/>
-      <c r="K31" s="41">
+      <c r="J31" s="43"/>
+      <c r="K31" s="39">
         <v>0.05</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="39">
         <v>0.95</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="43">
         <v>0.4</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N31" s="40">
         <v>0.15</v>
       </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41" t="s">
+      <c r="O31" s="40"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-    </row>
-    <row r="32" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+    </row>
+    <row r="32" spans="1:26" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7684,7 +7686,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7724,155 +7726,155 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="b">
+    <row r="34" spans="1:26">
+      <c r="A34" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-    </row>
-    <row r="35" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41" t="s">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>734</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48" t="s">
+        <v>735</v>
+      </c>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41" t="s">
+      <c r="C36" s="39"/>
+      <c r="D36" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E36" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F36" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G36" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41">
+      <c r="H36" s="39"/>
+      <c r="I36" s="39">
         <v>0.5</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41">
-        <v>0</v>
-      </c>
-      <c r="L35" s="41">
+      <c r="J36" s="39"/>
+      <c r="K36" s="39">
+        <v>0</v>
+      </c>
+      <c r="L36" s="39">
         <v>0.8</v>
       </c>
-      <c r="M35" s="41">
+      <c r="M36" s="39">
         <v>0.5</v>
       </c>
-      <c r="N35" s="41">
+      <c r="N36" s="39">
         <v>0.133333333</v>
       </c>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41" t="s">
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-    </row>
-    <row r="36" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-    </row>
-    <row r="37" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37" s="15"/>
-      <c r="I37" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15"/>
+      <c r="I37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -7890,27 +7892,27 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15" t="s">
-        <v>661</v>
-      </c>
+      <c r="I38" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
@@ -7928,95 +7930,93 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="b">
+    <row r="39" spans="1:26">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+    </row>
+    <row r="40" spans="1:26" ht="15">
+      <c r="A40" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B40" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C40" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D40" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E40" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-    </row>
-    <row r="40" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-    </row>
-    <row r="41" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+    </row>
+    <row r="41" spans="1:26" ht="15">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
@@ -8024,10 +8024,10 @@
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
@@ -8038,34 +8038,46 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-    </row>
-    <row r="42" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+    </row>
+    <row r="42" spans="1:26" ht="15">
       <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="D42" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>403</v>
+      </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="I42" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>433</v>
+      </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
@@ -8074,7 +8086,7 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -8089,9 +8101,9 @@
       <c r="L43" s="10"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
@@ -8102,7 +8114,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -8117,9 +8129,9 @@
       <c r="L44" s="10"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
@@ -8130,7 +8142,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
     </row>
-    <row r="45" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -8158,7 +8170,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -8186,7 +8198,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -8214,7 +8226,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -8242,7 +8254,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -8270,7 +8282,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8298,7 +8310,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8326,7 +8338,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8354,7 +8366,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8382,7 +8394,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8410,8 +8422,8 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
+    <row r="55" spans="1:26" ht="15">
+      <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -8438,8 +8450,8 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:26" ht="15">
+      <c r="A56" s="15"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -8466,7 +8478,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8479,11 +8491,11 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -8494,8 +8506,8 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
+    <row r="58" spans="1:26" ht="15">
+      <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -8507,11 +8519,11 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
       <c r="R58" s="15"/>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
@@ -8522,8 +8534,8 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
+    <row r="59" spans="1:26" ht="15">
+      <c r="A59" s="15"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -8535,7 +8547,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
+      <c r="M59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
@@ -8550,7 +8562,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8563,11 +8575,11 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
@@ -8578,8 +8590,8 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
+    <row r="61" spans="1:26" ht="15">
+      <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -8591,11 +8603,11 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
       <c r="R61" s="15"/>
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
@@ -8606,8 +8618,8 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:26" ht="15">
+      <c r="A62" s="15"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -8619,7 +8631,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
+      <c r="M62" s="15"/>
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
       <c r="P62" s="15"/>
@@ -8634,7 +8646,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8647,11 +8659,11 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
@@ -8662,8 +8674,8 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
+    <row r="64" spans="1:26" ht="15">
+      <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -8675,11 +8687,11 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
       <c r="T64" s="15"/>
@@ -8690,8 +8702,8 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
+    <row r="65" spans="1:26" ht="15">
+      <c r="A65" s="15"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -8703,7 +8715,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
+      <c r="M65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
@@ -8718,7 +8730,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8731,11 +8743,11 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
@@ -8746,8 +8758,8 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
+    <row r="67" spans="1:26" ht="15">
+      <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -8759,11 +8771,11 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
       <c r="R67" s="15"/>
       <c r="S67" s="15"/>
       <c r="T67" s="15"/>
@@ -8774,8 +8786,8 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
+    <row r="68" spans="1:26" ht="15">
+      <c r="A68" s="15"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -8787,7 +8799,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
+      <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
@@ -8802,7 +8814,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -8815,11 +8827,11 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
@@ -8830,24 +8842,24 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
+    <row r="70" spans="1:26" ht="15">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
       <c r="R70" s="15"/>
       <c r="S70" s="15"/>
       <c r="T70" s="15"/>
@@ -8858,7 +8870,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8886,7 +8898,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8914,7 +8926,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -8929,8 +8941,8 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
@@ -8942,7 +8954,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -8957,8 +8969,8 @@
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
       <c r="Q74" s="15"/>
       <c r="R74" s="15"/>
       <c r="S74" s="15"/>
@@ -8970,7 +8982,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -8998,7 +9010,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9026,7 +9038,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9054,7 +9066,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9082,7 +9094,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9096,9 +9108,9 @@
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
@@ -9110,7 +9122,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="15">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9124,9 +9136,9 @@
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
@@ -9138,7 +9150,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9166,7 +9178,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9194,7 +9206,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9222,7 +9234,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9250,7 +9262,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9278,8 +9290,8 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="10"/>
+    <row r="86" spans="1:26">
+      <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
@@ -9293,8 +9305,8 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
@@ -9306,8 +9318,8 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A87" s="15"/>
+    <row r="87" spans="1:26" ht="15">
+      <c r="A87" s="10"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -9321,8 +9333,8 @@
       <c r="L87" s="15"/>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
       <c r="S87" s="15"/>
@@ -9334,7 +9346,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9349,8 +9361,8 @@
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="15"/>
@@ -9362,7 +9374,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9377,8 +9389,8 @@
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
@@ -9390,7 +9402,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9405,8 +9417,8 @@
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
@@ -9418,7 +9430,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9433,8 +9445,8 @@
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -9446,7 +9458,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9461,8 +9473,8 @@
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
@@ -9474,7 +9486,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9489,8 +9501,8 @@
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
@@ -9502,7 +9514,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9517,8 +9529,8 @@
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
       <c r="Q94" s="15"/>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
@@ -9530,7 +9542,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9545,8 +9557,8 @@
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
@@ -9558,7 +9570,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9573,8 +9585,8 @@
       <c r="L96" s="15"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
       <c r="Q96" s="15"/>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
@@ -9586,7 +9598,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9601,8 +9613,8 @@
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
       <c r="Q97" s="15"/>
       <c r="R97" s="15"/>
       <c r="S97" s="15"/>
@@ -9614,7 +9626,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9629,8 +9641,8 @@
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
       <c r="Q98" s="15"/>
       <c r="R98" s="15"/>
       <c r="S98" s="15"/>
@@ -9641,6 +9653,34 @@
       <c r="X98" s="15"/>
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
+      <c r="S99" s="15"/>
+      <c r="T99" s="15"/>
+      <c r="U99" s="15"/>
+      <c r="V99" s="15"/>
+      <c r="W99" s="15"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -9666,120 +9706,120 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="18">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
+      <c r="A2" s="32" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>643</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>461</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="32" t="s">
         <v>621</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+      <c r="A3" s="32" t="s">
         <v>623</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>644</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>624</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>625</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>626</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>627</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="32" t="s">
         <v>628</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="32" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="22" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>630</v>
       </c>
@@ -9812,7 +9852,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="22" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>633</v>
       </c>
@@ -9845,7 +9885,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="22" customFormat="1">
       <c r="A6" s="15" t="s">
         <v>636</v>
       </c>
@@ -9878,7 +9918,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="22" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>639</v>
       </c>
@@ -9911,7 +9951,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="22" customFormat="1">
       <c r="A8" s="15" t="s">
         <v>662</v>
       </c>
@@ -9940,7 +9980,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="22" customFormat="1">
       <c r="A9" s="15" t="s">
         <v>664</v>
       </c>
@@ -9969,7 +10009,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="22" customFormat="1">
       <c r="A10" s="15" t="s">
         <v>665</v>
       </c>
@@ -9998,7 +10038,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="22" customFormat="1">
       <c r="A11" s="15" t="s">
         <v>666</v>
       </c>
@@ -10027,7 +10067,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="22" customFormat="1">
       <c r="A12" s="15" t="s">
         <v>668</v>
       </c>
@@ -10056,7 +10096,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="22" customFormat="1">
       <c r="A13" s="15" t="s">
         <v>670</v>
       </c>
@@ -10085,7 +10125,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="22" customFormat="1">
       <c r="A14" s="15" t="s">
         <v>672</v>
       </c>
@@ -10114,7 +10154,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
         <v>674</v>
       </c>
@@ -10143,7 +10183,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
         <v>676</v>
       </c>
@@ -10172,7 +10212,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="21" customFormat="1">
       <c r="A17" s="15" t="s">
         <v>678</v>
       </c>
@@ -10201,7 +10241,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="21" customFormat="1">
       <c r="A18" s="15" t="s">
         <v>680</v>
       </c>
@@ -10230,7 +10270,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="21" customFormat="1">
       <c r="A19" s="15" t="s">
         <v>682</v>
       </c>
@@ -10259,7 +10299,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="21" customFormat="1">
       <c r="A20" s="15" t="s">
         <v>684</v>
       </c>
@@ -10288,7 +10328,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="21" customFormat="1">
       <c r="A21" s="15" t="s">
         <v>686</v>
       </c>
@@ -10317,7 +10357,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="21" customFormat="1">
       <c r="A22" s="15" t="s">
         <v>688</v>
       </c>
@@ -10346,7 +10386,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="22" customFormat="1">
       <c r="A23" s="15" t="s">
         <v>690</v>
       </c>
@@ -10375,7 +10415,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="22" customFormat="1">
       <c r="A24" s="15" t="s">
         <v>692</v>
       </c>
@@ -10404,7 +10444,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="22" customFormat="1">
       <c r="A25" s="15" t="s">
         <v>694</v>
       </c>
@@ -10433,7 +10473,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="22" customFormat="1">
       <c r="A26" s="15" t="s">
         <v>696</v>
       </c>
@@ -10462,7 +10502,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10477,7 +10517,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10492,7 +10532,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -10507,7 +10547,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -10522,202 +10562,202 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="B31" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="B32" s="21"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="21"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="21"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="21"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="21"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="21"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="21"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="21"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="21"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="21"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="21"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="21"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="21"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="21"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="21"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="21"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="21"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="21"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="21"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="21"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="21"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="21"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="21"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="21"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="21"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="21"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="21"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="21"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="21"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="21"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="21"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="21"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="21"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="21"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="21"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="21"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="21"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="21"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="21"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2">
       <c r="B74" s="21"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2">
       <c r="B75" s="21"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="21"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="21"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" s="21"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="21"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="21"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="21"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="21"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="21"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="21"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" s="21"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="21"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="21"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="21"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="21"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="21"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" s="21"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" s="21"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" s="21"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" s="21"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2">
       <c r="B95" s="21"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2">
       <c r="B96" s="21"/>
     </row>
   </sheetData>
@@ -10739,19 +10779,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -10770,7 +10810,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -10791,7 +10831,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -10814,7 +10854,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -10837,7 +10877,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -10860,7 +10900,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -10883,7 +10923,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -10906,7 +10946,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -10929,7 +10969,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -10952,7 +10992,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -10975,7 +11015,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -10994,7 +11034,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11015,7 +11055,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11038,7 +11078,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11061,7 +11101,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11084,7 +11124,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11107,7 +11147,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11130,7 +11170,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11153,7 +11193,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11176,7 +11216,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11199,7 +11239,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11218,7 +11258,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11241,7 +11281,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11264,7 +11304,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11287,7 +11327,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11310,7 +11350,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11333,7 +11373,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11356,7 +11396,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11379,7 +11419,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11402,7 +11442,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11425,7 +11465,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11444,7 +11484,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11465,7 +11505,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11488,7 +11528,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11511,7 +11551,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11534,7 +11574,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11557,7 +11597,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11580,7 +11620,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11603,7 +11643,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11626,7 +11666,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11649,7 +11689,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11668,7 +11708,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11689,7 +11729,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11712,7 +11752,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11735,7 +11775,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11758,7 +11798,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -11781,7 +11821,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -11804,7 +11844,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -11827,7 +11867,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -11850,7 +11890,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -11873,7 +11913,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -11892,7 +11932,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -11913,7 +11953,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -11936,7 +11976,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -11959,7 +11999,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -11982,7 +12022,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12005,7 +12045,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12028,7 +12068,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12051,7 +12091,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12074,7 +12114,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12097,7 +12137,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12116,7 +12156,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12137,7 +12177,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12162,7 +12202,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12185,7 +12225,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12208,7 +12248,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12231,7 +12271,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12254,7 +12294,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12277,7 +12317,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12300,7 +12340,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12323,7 +12363,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12346,7 +12386,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12365,7 +12405,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12386,7 +12426,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12409,7 +12449,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12434,7 +12474,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12457,7 +12497,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12480,7 +12520,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12503,7 +12543,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12526,7 +12566,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12549,7 +12589,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12572,7 +12612,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12595,7 +12635,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12618,7 +12658,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12641,7 +12681,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12664,7 +12704,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12683,7 +12723,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12706,7 +12746,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12729,7 +12769,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12752,7 +12792,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -12775,7 +12815,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -12798,7 +12838,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -12821,7 +12861,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -12844,7 +12884,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -12867,7 +12907,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -12890,7 +12930,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -12913,7 +12953,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -12932,7 +12972,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -12957,7 +12997,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -12976,7 +13016,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -12997,7 +13037,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13022,7 +13062,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13041,7 +13081,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13064,7 +13104,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13089,7 +13129,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13112,7 +13152,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13133,7 +13173,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13152,7 +13192,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13177,7 +13217,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13200,7 +13240,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13223,7 +13263,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13246,7 +13286,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13269,7 +13309,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13292,7 +13332,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13315,7 +13355,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13334,7 +13374,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13357,7 +13397,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13380,7 +13420,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13403,7 +13443,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13422,7 +13462,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13445,7 +13485,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13468,7 +13508,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13491,7 +13531,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13514,7 +13554,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13537,7 +13577,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13560,7 +13600,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13579,7 +13619,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13604,7 +13644,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13627,7 +13667,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13650,7 +13690,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13673,7 +13713,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13696,7 +13736,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13719,7 +13759,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13742,7 +13782,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -13765,7 +13805,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -13788,7 +13828,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -13807,7 +13847,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -13832,7 +13872,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -13853,7 +13893,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -13876,7 +13916,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -13899,7 +13939,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -13922,7 +13962,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -13945,7 +13985,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -13968,7 +14008,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -13991,7 +14031,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14014,7 +14054,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14037,7 +14077,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14060,7 +14100,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14083,7 +14123,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14106,7 +14146,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14129,7 +14169,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14148,7 +14188,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14171,7 +14211,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14190,7 +14230,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14213,7 +14253,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14236,7 +14276,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14255,7 +14295,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14280,7 +14320,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14303,7 +14343,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14326,7 +14366,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14349,7 +14389,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14372,7 +14412,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14395,7 +14435,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14418,7 +14458,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14441,7 +14481,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14464,7 +14504,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14487,7 +14527,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14506,7 +14546,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14531,7 +14571,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14554,7 +14594,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14577,7 +14617,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14600,7 +14640,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14623,7 +14663,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14646,7 +14686,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14669,7 +14709,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14692,7 +14732,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14715,7 +14755,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14738,7 +14778,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14757,7 +14797,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -14780,7 +14820,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -14803,7 +14843,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -14826,7 +14866,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -14849,7 +14889,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -14868,7 +14908,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -14891,7 +14931,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -14914,7 +14954,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -14937,7 +14977,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -14960,7 +15000,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -14979,7 +15019,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15000,7 +15040,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15023,7 +15063,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15042,7 +15082,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15065,7 +15105,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15090,7 +15130,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15111,7 +15151,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15136,7 +15176,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15161,7 +15201,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15180,7 +15220,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15205,7 +15245,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15228,7 +15268,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15251,7 +15291,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15274,7 +15314,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15297,7 +15337,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15320,7 +15360,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15343,7 +15383,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15366,7 +15406,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15389,7 +15429,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15408,7 +15448,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15433,7 +15473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15456,7 +15496,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15479,7 +15519,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15502,7 +15542,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15525,7 +15565,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15548,7 +15588,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15571,7 +15611,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15594,7 +15634,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15617,7 +15657,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15636,7 +15676,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15657,7 +15697,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15680,7 +15720,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15703,7 +15743,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15726,7 +15766,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15749,7 +15789,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -15772,7 +15812,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -15795,7 +15835,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -15818,7 +15858,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -15841,7 +15881,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -15864,7 +15904,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -15887,7 +15927,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -15910,7 +15950,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -15933,7 +15973,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -15956,7 +15996,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -15979,7 +16019,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16002,7 +16042,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16021,7 +16061,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16042,7 +16082,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16065,7 +16105,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16088,7 +16128,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16111,7 +16151,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16134,7 +16174,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16157,7 +16197,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16180,7 +16220,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16203,7 +16243,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16226,7 +16266,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16249,7 +16289,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16272,7 +16312,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16295,7 +16335,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16318,7 +16358,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16341,7 +16381,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16364,7 +16404,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16387,7 +16427,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16406,7 +16446,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16431,7 +16471,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16454,7 +16494,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16477,7 +16517,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16500,7 +16540,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16523,7 +16563,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16542,7 +16582,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16567,7 +16607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16590,7 +16630,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16609,7 +16649,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16628,7 +16668,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16647,7 +16687,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16668,7 +16708,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16691,7 +16731,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16714,7 +16754,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16737,7 +16777,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -16760,7 +16800,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -16783,7 +16823,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -16806,7 +16846,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -16829,7 +16869,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -16852,7 +16892,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -16875,7 +16915,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -16898,7 +16938,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -16917,7 +16957,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -16940,7 +16980,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -16959,7 +16999,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -16984,7 +17024,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17007,7 +17047,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17030,7 +17070,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17053,7 +17093,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17076,7 +17116,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17099,7 +17139,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17122,7 +17162,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17145,7 +17185,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17168,7 +17208,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17191,7 +17231,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17214,7 +17254,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17233,7 +17273,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17256,7 +17296,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17275,7 +17315,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17296,7 +17336,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17315,7 +17355,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17336,7 +17376,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17355,7 +17395,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17376,7 +17416,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17395,7 +17435,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17418,7 +17458,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17437,7 +17477,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17462,7 +17502,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17485,7 +17525,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17508,7 +17548,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17531,7 +17571,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17554,7 +17594,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17577,7 +17617,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17600,7 +17640,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17623,7 +17663,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17646,7 +17686,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17665,7 +17705,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17688,7 +17728,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17711,7 +17751,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17734,7 +17774,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17757,7 +17797,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -17776,7 +17816,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -17799,7 +17839,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -17822,7 +17862,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -17847,7 +17887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -17866,7 +17906,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -17891,7 +17931,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -17914,7 +17954,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -17933,7 +17973,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -17954,7 +17994,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -17975,7 +18015,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -17998,7 +18038,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18017,7 +18057,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18036,7 +18076,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18061,7 +18101,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18086,7 +18126,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18100,7 +18140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18123,7 +18163,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18143,7 +18183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18163,7 +18203,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18183,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18200,7 +18240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18223,7 +18263,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18246,7 +18286,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18260,7 +18300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18283,7 +18323,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18306,7 +18346,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18326,7 +18366,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18346,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18363,7 +18403,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18389,7 +18429,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18418,7 +18458,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18457,7 +18497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18471,7 +18511,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18491,7 +18531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18505,7 +18545,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18525,7 +18565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18545,7 +18585,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18565,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18585,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18605,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18625,7 +18665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18645,7 +18685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18665,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18685,7 +18725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18699,7 +18739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18719,7 +18759,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18739,7 +18779,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18755,7 +18795,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18781,7 +18821,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18822,7 +18862,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18836,7 +18876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18856,7 +18896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18870,7 +18910,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18909,17 +18949,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -18936,7 +18976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="21" customFormat="1">
       <c r="A2" s="21" t="s">
         <v>645</v>
       </c>
@@ -18953,7 +18993,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="21" customFormat="1">
       <c r="A3" s="21" t="s">
         <v>589</v>
       </c>
@@ -18970,7 +19010,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="21" customFormat="1">
       <c r="A4" s="21" t="s">
         <v>591</v>
       </c>
@@ -18987,7 +19027,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="21" customFormat="1">
       <c r="A5" s="21" t="s">
         <v>593</v>
       </c>
@@ -19004,7 +19044,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="21" customFormat="1">
       <c r="A6" s="21" t="s">
         <v>595</v>
       </c>
@@ -19021,7 +19061,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="21" customFormat="1">
       <c r="A7" s="21" t="s">
         <v>597</v>
       </c>
@@ -19038,7 +19078,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="21" t="s">
         <v>439</v>
       </c>
@@ -19055,7 +19095,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="21" customFormat="1">
       <c r="A9" s="21" t="s">
         <v>600</v>
       </c>
@@ -19072,7 +19112,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="21" customFormat="1">
       <c r="A10" s="21" t="s">
         <v>602</v>
       </c>
@@ -19089,11 +19129,11 @@
         <v>726</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="21" customFormat="1"/>
+    <row r="12" spans="1:7" s="21" customFormat="1"/>
+    <row r="13" spans="1:7" s="21" customFormat="1"/>
+    <row r="14" spans="1:7" s="21" customFormat="1"/>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>569</v>
       </c>
@@ -19107,7 +19147,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>455</v>
       </c>
@@ -19121,7 +19161,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>453</v>
       </c>
@@ -19132,8 +19172,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="21" customFormat="1"/>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>547</v>
       </c>
@@ -19159,7 +19199,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>548</v>
       </c>
@@ -19200,7 +19240,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -19241,7 +19281,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>541</v>
       </c>
@@ -19273,7 +19313,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>550</v>
       </c>
@@ -19305,7 +19345,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>549</v>
       </c>
@@ -19334,7 +19374,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>551</v>
       </c>
@@ -19366,7 +19406,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>552</v>
       </c>
@@ -19386,7 +19426,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="L28" s="1" t="s">
         <v>557</v>
       </c>
@@ -19406,7 +19446,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="L29" s="1" t="s">
         <v>558</v>
       </c>
@@ -19417,7 +19457,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="L30" s="1" t="s">
         <v>538</v>
       </c>
@@ -19425,7 +19465,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="L31" s="1" t="s">
         <v>540</v>
       </c>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -3997,10 +3997,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1497">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5800,8 +5800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6078,14 +6078,14 @@
       </c>
       <c r="B23" s="17">
         <f>IF(D23&lt;&gt;"",D23,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="C23" s="24" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D23" s="26">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="E23" s="22"/>
     </row>
@@ -6335,7 +6335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -6393,14 +6393,14 @@
       <c r="R1" s="30"/>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
     </row>
     <row r="2" spans="1:26" s="45" customFormat="1" ht="15">
       <c r="A2" s="31" t="s">
@@ -7765,42 +7765,42 @@
       <c r="Z34" s="36"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47" t="s">
         <v>736</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="47" t="s">
         <v>734</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48" t="s">
+      <c r="F35" s="47"/>
+      <c r="G35" s="47" t="s">
         <v>735</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48" t="b">
+      <c r="H35" s="47"/>
+      <c r="I35" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="39"/>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -6078,14 +6078,14 @@
       </c>
       <c r="B23" s="17">
         <f>IF(D23&lt;&gt;"",D23,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="C23" s="24" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D23" s="26">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E23" s="22"/>
     </row>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -6078,14 +6078,14 @@
       </c>
       <c r="B23" s="17">
         <f>IF(D23&lt;&gt;"",D23,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C23" s="24" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D23" s="26">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="22"/>
     </row>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="562"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25356" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -5800,21 +5800,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="19"/>
       <c r="C1" s="12"/>
@@ -5824,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>434</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>468</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46" customHeight="1">
+    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>469</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>441</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>442</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1">
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>463</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>465</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>452</v>
       </c>
@@ -6030,12 +6030,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="22" customFormat="1">
+    <row r="20" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>450</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Sample Method</v>
@@ -6071,25 +6071,25 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="28">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Number of Samples</v>
       </c>
       <c r="B23" s="17">
         <f>IF(D23&lt;&gt;"",D23,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="C23" s="24" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D23" s="26">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6105,7 +6105,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:6" s="22" customFormat="1">
+    <row r="25" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="D25" s="26"/>
     </row>
-    <row r="26" spans="1:6" s="22" customFormat="1">
+    <row r="26" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="D26" s="26"/>
     </row>
-    <row r="27" spans="1:6" s="22" customFormat="1">
+    <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="D27" s="26"/>
     </row>
-    <row r="28" spans="1:6" s="22" customFormat="1">
+    <row r="28" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="D28" s="26"/>
     </row>
-    <row r="29" spans="1:6" s="22" customFormat="1">
+    <row r="29" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="D29" s="26"/>
     </row>
-    <row r="30" spans="1:6" s="22" customFormat="1">
+    <row r="30" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="D30" s="26"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6211,7 +6211,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="22" customFormat="1">
+    <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6226,13 +6226,13 @@
       </c>
       <c r="D32" s="26"/>
     </row>
-    <row r="33" spans="1:6" s="22" customFormat="1">
+    <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -6246,7 +6246,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>34</v>
       </c>
@@ -6339,34 +6339,34 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1"/>
-    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="1"/>
+    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1"/>
-    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.5" style="1"/>
-    <col min="27" max="16384" width="11.5" style="44"/>
+    <col min="25" max="26" width="11.44140625" style="1"/>
+    <col min="27" max="16384" width="11.44140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -6402,7 +6402,7 @@
       <c r="Y1" s="48"/>
       <c r="Z1" s="48"/>
     </row>
-    <row r="2" spans="1:26" s="45" customFormat="1" ht="15">
+    <row r="2" spans="1:26" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
@@ -6438,7 +6438,7 @@
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
     </row>
-    <row r="3" spans="1:26" s="46" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="46" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="Z3" s="32"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="b">
         <v>1</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="Y4" s="36"/>
       <c r="Z4" s="36"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6594,7 +6594,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="39" t="s">
         <v>22</v>
@@ -6642,7 +6642,7 @@
       <c r="Y6" s="39"/>
       <c r="Z6" s="39"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6680,7 +6680,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6718,7 +6718,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6756,7 +6756,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6794,7 +6794,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -6832,7 +6832,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -6870,7 +6870,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -6908,7 +6908,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="b">
         <v>1</v>
       </c>
@@ -6946,7 +6946,7 @@
       <c r="Y14" s="36"/>
       <c r="Z14" s="36"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="39" t="s">
         <v>22</v>
@@ -6994,7 +6994,7 @@
       <c r="Y15" s="39"/>
       <c r="Z15" s="39"/>
     </row>
-    <row r="16" spans="1:26" ht="15">
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="b">
         <v>1</v>
       </c>
@@ -7032,7 +7032,7 @@
       <c r="Y16" s="36"/>
       <c r="Z16" s="36"/>
     </row>
-    <row r="17" spans="1:26" ht="15">
+    <row r="17" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="43" t="s">
         <v>22</v>
@@ -7080,7 +7080,7 @@
       <c r="Y17" s="39"/>
       <c r="Z17" s="39"/>
     </row>
-    <row r="18" spans="1:26" ht="15">
+    <row r="18" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7118,7 +7118,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" ht="15">
+    <row r="19" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7156,7 +7156,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" ht="15">
+    <row r="20" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7194,7 +7194,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" ht="15">
+    <row r="21" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="b">
         <v>1</v>
       </c>
@@ -7232,7 +7232,7 @@
       <c r="Y21" s="36"/>
       <c r="Z21" s="36"/>
     </row>
-    <row r="22" spans="1:26" ht="15">
+    <row r="22" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="43" t="s">
         <v>22</v>
@@ -7284,7 +7284,7 @@
       <c r="Y22" s="39"/>
       <c r="Z22" s="39"/>
     </row>
-    <row r="23" spans="1:26" ht="15">
+    <row r="23" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7322,7 +7322,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" ht="15">
+    <row r="24" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7360,7 +7360,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" ht="15">
+    <row r="25" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7398,7 +7398,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" ht="15">
+    <row r="26" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="b">
         <v>1</v>
       </c>
@@ -7436,7 +7436,7 @@
       <c r="Y26" s="36"/>
       <c r="Z26" s="36"/>
     </row>
-    <row r="27" spans="1:26" ht="15">
+    <row r="27" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="43" t="s">
         <v>22</v>
@@ -7484,7 +7484,7 @@
       <c r="Y27" s="39"/>
       <c r="Z27" s="39"/>
     </row>
-    <row r="28" spans="1:26" ht="15">
+    <row r="28" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7522,7 +7522,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" ht="15">
+    <row r="29" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7562,7 +7562,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" ht="15">
+    <row r="30" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="b">
         <v>1</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="Y30" s="36"/>
       <c r="Z30" s="36"/>
     </row>
-    <row r="31" spans="1:26" ht="15">
+    <row r="31" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="43" t="s">
         <v>22</v>
@@ -7648,7 +7648,7 @@
       <c r="Y31" s="39"/>
       <c r="Z31" s="39"/>
     </row>
-    <row r="32" spans="1:26" ht="15">
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7686,7 +7686,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" ht="15">
+    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7726,7 +7726,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="b">
         <v>1</v>
       </c>
@@ -7764,7 +7764,7 @@
       <c r="Y34" s="36"/>
       <c r="Z34" s="36"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="47"/>
       <c r="B35" s="47" t="s">
         <v>21</v>
@@ -7802,7 +7802,7 @@
       <c r="Y35" s="47"/>
       <c r="Z35" s="47"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="39"/>
       <c r="B36" s="39" t="s">
         <v>22</v>
@@ -7852,7 +7852,7 @@
       <c r="Y36" s="39"/>
       <c r="Z36" s="39"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -7892,7 +7892,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -7930,7 +7930,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="15" t="s">
         <v>21</v>
@@ -7968,7 +7968,7 @@
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
     </row>
-    <row r="40" spans="1:26" ht="15">
+    <row r="40" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="42" t="b">
         <v>1</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
     </row>
-    <row r="41" spans="1:26" ht="15">
+    <row r="41" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>21</v>
@@ -8046,7 +8046,7 @@
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
     </row>
-    <row r="42" spans="1:26" ht="15">
+    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8086,7 +8086,7 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" ht="15">
+    <row r="43" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -8114,7 +8114,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" ht="15">
+    <row r="44" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -8142,7 +8142,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
     </row>
-    <row r="45" spans="1:26" ht="15">
+    <row r="45" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -8170,7 +8170,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" ht="15">
+    <row r="46" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -8198,7 +8198,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" ht="15">
+    <row r="47" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -8226,7 +8226,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" ht="15">
+    <row r="48" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -8254,7 +8254,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" ht="15">
+    <row r="49" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -8282,7 +8282,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" ht="15">
+    <row r="50" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8310,7 +8310,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" ht="15">
+    <row r="51" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8338,7 +8338,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" ht="15">
+    <row r="52" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8366,7 +8366,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" ht="15">
+    <row r="53" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8394,7 +8394,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" ht="15">
+    <row r="54" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8422,7 +8422,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" ht="15">
+    <row r="55" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8450,7 +8450,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15">
+    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8478,7 +8478,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" ht="15">
+    <row r="57" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8506,7 +8506,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15">
+    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8534,7 +8534,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15">
+    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8562,7 +8562,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15">
+    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8590,7 +8590,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15">
+    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8618,7 +8618,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15">
+    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8646,7 +8646,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
+    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8674,7 +8674,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15">
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -8702,7 +8702,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15">
+    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -8730,7 +8730,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15">
+    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8758,7 +8758,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15">
+    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -8786,7 +8786,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15">
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -8814,7 +8814,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15">
+    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -8842,7 +8842,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" ht="15">
+    <row r="70" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -8870,7 +8870,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8898,7 +8898,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8926,7 +8926,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -8954,7 +8954,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -8982,7 +8982,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9010,7 +9010,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9038,7 +9038,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9066,7 +9066,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9094,7 +9094,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9122,7 +9122,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" ht="15">
+    <row r="80" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9150,7 +9150,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9178,7 +9178,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9206,7 +9206,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9234,7 +9234,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9262,7 +9262,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9290,7 +9290,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9318,7 +9318,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" ht="15">
+    <row r="87" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9346,7 +9346,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9374,7 +9374,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9402,7 +9402,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9430,7 +9430,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9458,7 +9458,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9486,7 +9486,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9514,7 +9514,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9542,7 +9542,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9570,7 +9570,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9598,7 +9598,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9626,7 +9626,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9654,7 +9654,7 @@
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -9706,25 +9706,25 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="22" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -9741,7 +9741,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>460</v>
       </c>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>623</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="22" customFormat="1">
+    <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>630</v>
       </c>
@@ -9852,7 +9852,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="22" customFormat="1">
+    <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>633</v>
       </c>
@@ -9885,7 +9885,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1">
+    <row r="6" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>636</v>
       </c>
@@ -9918,7 +9918,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="22" customFormat="1">
+    <row r="7" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>639</v>
       </c>
@@ -9951,7 +9951,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="22" customFormat="1">
+    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>662</v>
       </c>
@@ -9980,7 +9980,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="22" customFormat="1">
+    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>664</v>
       </c>
@@ -10009,7 +10009,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="22" customFormat="1">
+    <row r="10" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>665</v>
       </c>
@@ -10038,7 +10038,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="22" customFormat="1">
+    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>666</v>
       </c>
@@ -10067,7 +10067,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="22" customFormat="1">
+    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>668</v>
       </c>
@@ -10096,7 +10096,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="22" customFormat="1">
+    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>670</v>
       </c>
@@ -10125,7 +10125,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="22" customFormat="1">
+    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>672</v>
       </c>
@@ -10154,7 +10154,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1">
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>674</v>
       </c>
@@ -10183,7 +10183,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1">
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>676</v>
       </c>
@@ -10212,7 +10212,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="21" customFormat="1">
+    <row r="17" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>678</v>
       </c>
@@ -10241,7 +10241,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="21" customFormat="1">
+    <row r="18" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>680</v>
       </c>
@@ -10270,7 +10270,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="21" customFormat="1">
+    <row r="19" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>682</v>
       </c>
@@ -10299,7 +10299,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="21" customFormat="1">
+    <row r="20" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>684</v>
       </c>
@@ -10328,7 +10328,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="21" customFormat="1">
+    <row r="21" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>686</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="21" customFormat="1">
+    <row r="22" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>688</v>
       </c>
@@ -10386,7 +10386,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="22" customFormat="1">
+    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>690</v>
       </c>
@@ -10415,7 +10415,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="22" customFormat="1">
+    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>692</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="22" customFormat="1">
+    <row r="25" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>694</v>
       </c>
@@ -10473,7 +10473,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="22" customFormat="1">
+    <row r="26" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>696</v>
       </c>
@@ -10502,7 +10502,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10517,7 +10517,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10532,7 +10532,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -10547,7 +10547,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -10562,202 +10562,202 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="21"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="21"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="21"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="21"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="21"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="21"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="21"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="21"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="21"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="21"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="21"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="21"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="21"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="21"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="21"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="21"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="21"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="21"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="21"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="21"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="21"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="21"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="21"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="21"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="21"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="21"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="21"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="21"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="21"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="21"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="21"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="21"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="21"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="21"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="21"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="21"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="21"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="21"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="21"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="21"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="21"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="21"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="21"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="21"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="21"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="21"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="21"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="21"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="21"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="21"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="21"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="21"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="21"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="21"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="21"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="21"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="21"/>
     </row>
   </sheetData>
@@ -10779,19 +10779,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -10810,7 +10810,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -10831,7 +10831,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -10854,7 +10854,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11034,7 +11034,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11055,7 +11055,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11258,7 +11258,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11484,7 +11484,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11505,7 +11505,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11574,7 +11574,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11597,7 +11597,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11620,7 +11620,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11708,7 +11708,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11729,7 +11729,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -11844,7 +11844,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -11932,7 +11932,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -11953,7 +11953,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -11976,7 +11976,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -11999,7 +11999,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12022,7 +12022,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12068,7 +12068,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12114,7 +12114,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12156,7 +12156,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12177,7 +12177,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12202,7 +12202,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12248,7 +12248,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12294,7 +12294,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12317,7 +12317,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12340,7 +12340,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12405,7 +12405,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12426,7 +12426,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12474,7 +12474,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12520,7 +12520,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12612,7 +12612,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12704,7 +12704,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12723,7 +12723,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12769,7 +12769,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -12861,7 +12861,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -12884,7 +12884,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -12907,7 +12907,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -12972,7 +12972,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -12997,7 +12997,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13016,7 +13016,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13037,7 +13037,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13062,7 +13062,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13081,7 +13081,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13104,7 +13104,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13129,7 +13129,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13173,7 +13173,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13192,7 +13192,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13217,7 +13217,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13332,7 +13332,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13374,7 +13374,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13420,7 +13420,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13462,7 +13462,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13485,7 +13485,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13508,7 +13508,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13531,7 +13531,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13554,7 +13554,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13600,7 +13600,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13619,7 +13619,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13644,7 +13644,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13690,7 +13690,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13759,7 +13759,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -13805,7 +13805,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -13828,7 +13828,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -13847,7 +13847,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -13872,7 +13872,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -13893,7 +13893,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14008,7 +14008,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14077,7 +14077,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14123,7 +14123,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14146,7 +14146,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14188,7 +14188,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14230,7 +14230,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14276,7 +14276,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14295,7 +14295,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14320,7 +14320,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14412,7 +14412,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14481,7 +14481,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14504,7 +14504,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14546,7 +14546,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14571,7 +14571,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14594,7 +14594,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14686,7 +14686,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14778,7 +14778,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14797,7 +14797,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -14843,7 +14843,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -14866,7 +14866,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -14889,7 +14889,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -14908,7 +14908,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -14931,7 +14931,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -14977,7 +14977,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15000,7 +15000,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15019,7 +15019,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15040,7 +15040,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15082,7 +15082,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15105,7 +15105,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15130,7 +15130,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15151,7 +15151,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15176,7 +15176,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15201,7 +15201,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15220,7 +15220,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15245,7 +15245,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15360,7 +15360,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15406,7 +15406,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15473,7 +15473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15496,7 +15496,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15519,7 +15519,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15542,7 +15542,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15611,7 +15611,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15676,7 +15676,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15697,7 +15697,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15720,7 +15720,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15766,7 +15766,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15789,7 +15789,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -15835,7 +15835,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -15858,7 +15858,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -15881,7 +15881,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -15904,7 +15904,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -15927,7 +15927,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -15973,7 +15973,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -15996,7 +15996,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16019,7 +16019,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16061,7 +16061,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16082,7 +16082,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16128,7 +16128,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16151,7 +16151,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16174,7 +16174,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16197,7 +16197,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16220,7 +16220,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16243,7 +16243,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16266,7 +16266,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16312,7 +16312,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16358,7 +16358,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16427,7 +16427,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16446,7 +16446,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16471,7 +16471,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16563,7 +16563,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16582,7 +16582,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16607,7 +16607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16649,7 +16649,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16668,7 +16668,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16687,7 +16687,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16708,7 +16708,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16731,7 +16731,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16754,7 +16754,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -16800,7 +16800,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -16823,7 +16823,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -16846,7 +16846,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -16938,7 +16938,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -16957,7 +16957,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -16999,7 +16999,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17024,7 +17024,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17047,7 +17047,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17070,7 +17070,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17116,7 +17116,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17139,7 +17139,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17162,7 +17162,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17185,7 +17185,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17208,7 +17208,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17254,7 +17254,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17273,7 +17273,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17296,7 +17296,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17315,7 +17315,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17336,7 +17336,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17355,7 +17355,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17376,7 +17376,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17395,7 +17395,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17416,7 +17416,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17435,7 +17435,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17458,7 +17458,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17477,7 +17477,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17502,7 +17502,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17525,7 +17525,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17548,7 +17548,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17571,7 +17571,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17594,7 +17594,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17617,7 +17617,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17663,7 +17663,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17686,7 +17686,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17705,7 +17705,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17728,7 +17728,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17751,7 +17751,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17774,7 +17774,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17797,7 +17797,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -17816,7 +17816,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -17839,7 +17839,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -17887,7 +17887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -17906,7 +17906,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -17931,7 +17931,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -17954,7 +17954,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -17973,7 +17973,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -17994,7 +17994,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18015,7 +18015,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18038,7 +18038,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18057,7 +18057,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18076,7 +18076,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18101,7 +18101,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18126,7 +18126,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18429,7 +18429,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18458,7 +18458,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18497,7 +18497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18685,7 +18685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18795,7 +18795,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18821,7 +18821,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18862,7 +18862,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18949,17 +18949,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="21" customFormat="1">
+    <row r="2" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>645</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="21" customFormat="1">
+    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>589</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="21" customFormat="1">
+    <row r="4" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>591</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="21" customFormat="1">
+    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>593</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1">
+    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>595</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="21" customFormat="1">
+    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>597</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>439</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1">
+    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>600</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="21" customFormat="1">
+    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>602</v>
       </c>
@@ -19129,11 +19129,11 @@
         <v>726</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="21" customFormat="1"/>
-    <row r="12" spans="1:7" s="21" customFormat="1"/>
-    <row r="13" spans="1:7" s="21" customFormat="1"/>
-    <row r="14" spans="1:7" s="21" customFormat="1"/>
-    <row r="15" spans="1:7">
+    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>569</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>455</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>453</v>
       </c>
@@ -19172,8 +19172,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="21" customFormat="1"/>
-    <row r="20" spans="1:21">
+    <row r="18" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>547</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>548</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>541</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>550</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>549</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>551</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>552</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L28" s="1" t="s">
         <v>557</v>
       </c>
@@ -19446,7 +19446,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L29" s="1" t="s">
         <v>558</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L30" s="1" t="s">
         <v>538</v>
       </c>
@@ -19465,7 +19465,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L31" s="1" t="s">
         <v>540</v>
       </c>

--- a/projects/lhs_discrete_continuous_example.xlsx
+++ b/projects/lhs_discrete_continuous_example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25356" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13180" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2241,9 +2241,6 @@
     <t>discrete</t>
   </si>
   <si>
-    <t>1.17.0</t>
-  </si>
-  <si>
     <t>__SKIP__</t>
   </si>
   <si>
@@ -2251,6 +2248,9 @@
   </si>
   <si>
     <t>Skip Entire Measure</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -5800,21 +5800,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="12"/>
       <c r="B1" s="19"/>
       <c r="C1" s="12"/>
@@ -5824,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>434</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
@@ -5856,18 +5856,18 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>469</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>441</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>442</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="7" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>463</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>465</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>452</v>
       </c>
@@ -6030,12 +6030,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="22" customFormat="1">
       <c r="B20" s="17"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A21" s="6" t="s">
         <v>450</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Sample Method</v>
@@ -6071,25 +6071,25 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="28">
       <c r="A23" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Number of Samples</v>
       </c>
       <c r="B23" s="17">
         <f>IF(D23&lt;&gt;"",D23,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C23" s="24" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D23" s="26">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6105,7 +6105,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="22" customFormat="1">
       <c r="A25" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="D25" s="26"/>
     </row>
-    <row r="26" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="22" customFormat="1">
       <c r="A26" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="D26" s="26"/>
     </row>
-    <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="22" customFormat="1">
       <c r="A27" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="D27" s="26"/>
     </row>
-    <row r="28" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="22" customFormat="1">
       <c r="A28" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="D28" s="26"/>
     </row>
-    <row r="29" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="22" customFormat="1">
       <c r="A29" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="D29" s="26"/>
     </row>
-    <row r="30" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="22" customFormat="1">
       <c r="A30" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="D30" s="26"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6211,7 +6211,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="22" customFormat="1">
       <c r="A32" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B19,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6226,13 +6226,13 @@
       </c>
       <c r="D32" s="26"/>
     </row>
-    <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="22" customFormat="1">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -6246,7 +6246,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="28">
       <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A40" s="6" t="s">
         <v>34</v>
       </c>
@@ -6322,7 +6322,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6335,38 +6334,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1"/>
-    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.44140625" style="1"/>
-    <col min="27" max="16384" width="11.44140625" style="44"/>
+    <col min="25" max="26" width="11.5" style="1"/>
+    <col min="27" max="16384" width="11.5" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -6402,7 +6401,7 @@
       <c r="Y1" s="48"/>
       <c r="Z1" s="48"/>
     </row>
-    <row r="2" spans="1:26" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="45" customFormat="1" ht="15">
       <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
@@ -6438,7 +6437,7 @@
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
     </row>
-    <row r="3" spans="1:26" s="46" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="46" customFormat="1" ht="45">
       <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
@@ -6516,7 +6515,7 @@
       </c>
       <c r="Z3" s="32"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26">
       <c r="A4" s="36" t="b">
         <v>1</v>
       </c>
@@ -6554,7 +6553,7 @@
       <c r="Y4" s="36"/>
       <c r="Z4" s="36"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6594,7 +6593,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="A6" s="39"/>
       <c r="B6" s="39" t="s">
         <v>22</v>
@@ -6642,7 +6641,7 @@
       <c r="Y6" s="39"/>
       <c r="Z6" s="39"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6680,7 +6679,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6718,7 +6717,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6756,7 +6755,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6794,7 +6793,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -6832,7 +6831,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -6870,7 +6869,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -6908,7 +6907,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26">
       <c r="A14" s="36" t="b">
         <v>1</v>
       </c>
@@ -6946,7 +6945,7 @@
       <c r="Y14" s="36"/>
       <c r="Z14" s="36"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="A15" s="39"/>
       <c r="B15" s="39" t="s">
         <v>22</v>
@@ -6994,7 +6993,7 @@
       <c r="Y15" s="39"/>
       <c r="Z15" s="39"/>
     </row>
-    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15">
       <c r="A16" s="42" t="b">
         <v>1</v>
       </c>
@@ -7032,7 +7031,7 @@
       <c r="Y16" s="36"/>
       <c r="Z16" s="36"/>
     </row>
-    <row r="17" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="15">
       <c r="A17" s="43"/>
       <c r="B17" s="43" t="s">
         <v>22</v>
@@ -7080,7 +7079,7 @@
       <c r="Y17" s="39"/>
       <c r="Z17" s="39"/>
     </row>
-    <row r="18" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7118,7 +7117,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7156,7 +7155,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7194,7 +7193,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="15">
       <c r="A21" s="42" t="b">
         <v>1</v>
       </c>
@@ -7232,7 +7231,7 @@
       <c r="Y21" s="36"/>
       <c r="Z21" s="36"/>
     </row>
-    <row r="22" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="15">
       <c r="A22" s="43"/>
       <c r="B22" s="43" t="s">
         <v>22</v>
@@ -7284,7 +7283,7 @@
       <c r="Y22" s="39"/>
       <c r="Z22" s="39"/>
     </row>
-    <row r="23" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7322,7 +7321,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7360,7 +7359,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7398,7 +7397,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="15">
       <c r="A26" s="42" t="b">
         <v>1</v>
       </c>
@@ -7436,7 +7435,7 @@
       <c r="Y26" s="36"/>
       <c r="Z26" s="36"/>
     </row>
-    <row r="27" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="15">
       <c r="A27" s="43"/>
       <c r="B27" s="43" t="s">
         <v>22</v>
@@ -7484,7 +7483,7 @@
       <c r="Y27" s="39"/>
       <c r="Z27" s="39"/>
     </row>
-    <row r="28" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7522,7 +7521,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7562,7 +7561,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="15">
       <c r="A30" s="42" t="b">
         <v>1</v>
       </c>
@@ -7600,7 +7599,7 @@
       <c r="Y30" s="36"/>
       <c r="Z30" s="36"/>
     </row>
-    <row r="31" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="15">
       <c r="A31" s="43"/>
       <c r="B31" s="43" t="s">
         <v>22</v>
@@ -7648,7 +7647,7 @@
       <c r="Y31" s="39"/>
       <c r="Z31" s="39"/>
     </row>
-    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7686,7 +7685,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7726,7 +7725,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26">
       <c r="A34" s="36" t="b">
         <v>1</v>
       </c>
@@ -7764,21 +7763,21 @@
       <c r="Y34" s="36"/>
       <c r="Z34" s="36"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26">
       <c r="A35" s="47"/>
       <c r="B35" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F35" s="47"/>
       <c r="G35" s="47" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="47" t="b">
@@ -7802,7 +7801,7 @@
       <c r="Y35" s="47"/>
       <c r="Z35" s="47"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26">
       <c r="A36" s="39"/>
       <c r="B36" s="39" t="s">
         <v>22</v>
@@ -7852,7 +7851,7 @@
       <c r="Y36" s="39"/>
       <c r="Z36" s="39"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -7892,7 +7891,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -7930,7 +7929,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26">
       <c r="A39" s="15"/>
       <c r="B39" s="15" t="s">
         <v>21</v>
@@ -7968,7 +7967,7 @@
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
     </row>
-    <row r="40" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="15">
       <c r="A40" s="42" t="b">
         <v>1</v>
       </c>
@@ -8006,7 +8005,7 @@
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
     </row>
-    <row r="41" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="15">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>21</v>
@@ -8046,7 +8045,7 @@
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
     </row>
-    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8086,7 +8085,7 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -8114,7 +8113,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -8142,7 +8141,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
     </row>
-    <row r="45" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -8170,7 +8169,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -8198,7 +8197,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -8226,7 +8225,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -8254,7 +8253,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -8282,7 +8281,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8310,7 +8309,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8338,7 +8337,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8366,7 +8365,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8394,7 +8393,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8422,7 +8421,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8450,7 +8449,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="15"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8478,7 +8477,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8506,7 +8505,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8534,7 +8533,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="15"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8562,7 +8561,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8590,7 +8589,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8618,7 +8617,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="15"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8646,7 +8645,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8674,7 +8673,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -8702,7 +8701,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="15"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -8730,7 +8729,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8758,7 +8757,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -8786,7 +8785,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="15"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -8814,7 +8813,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -8842,7 +8841,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -8870,7 +8869,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8898,7 +8897,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8926,7 +8925,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -8954,7 +8953,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -8982,7 +8981,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9010,7 +9009,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9038,7 +9037,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9066,7 +9065,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9094,7 +9093,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9122,7 +9121,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="15">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9150,7 +9149,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9178,7 +9177,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9206,7 +9205,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9234,7 +9233,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9262,7 +9261,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9290,7 +9289,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9318,7 +9317,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9346,7 +9345,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9374,7 +9373,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9402,7 +9401,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9430,7 +9429,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9458,7 +9457,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9486,7 +9485,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9514,7 +9513,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9542,7 +9541,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9570,7 +9569,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9598,7 +9597,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9626,7 +9625,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9654,7 +9653,7 @@
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -9688,7 +9687,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9706,25 +9704,25 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="18">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -9741,7 +9739,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
       <c r="A2" s="32" t="s">
         <v>460</v>
       </c>
@@ -9780,7 +9778,7 @@
       </c>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
       <c r="A3" s="32" t="s">
         <v>623</v>
       </c>
@@ -9819,7 +9817,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="22" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>630</v>
       </c>
@@ -9852,7 +9850,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="22" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>633</v>
       </c>
@@ -9885,7 +9883,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="22" customFormat="1">
       <c r="A6" s="15" t="s">
         <v>636</v>
       </c>
@@ -9918,7 +9916,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="22" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>639</v>
       </c>
@@ -9951,7 +9949,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="22" customFormat="1">
       <c r="A8" s="15" t="s">
         <v>662</v>
       </c>
@@ -9980,7 +9978,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="22" customFormat="1">
       <c r="A9" s="15" t="s">
         <v>664</v>
       </c>
@@ -10009,7 +10007,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="22" customFormat="1">
       <c r="A10" s="15" t="s">
         <v>665</v>
       </c>
@@ -10038,7 +10036,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="22" customFormat="1">
       <c r="A11" s="15" t="s">
         <v>666</v>
       </c>
@@ -10067,7 +10065,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="22" customFormat="1">
       <c r="A12" s="15" t="s">
         <v>668</v>
       </c>
@@ -10096,7 +10094,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="22" customFormat="1">
       <c r="A13" s="15" t="s">
         <v>670</v>
       </c>
@@ -10125,7 +10123,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="22" customFormat="1">
       <c r="A14" s="15" t="s">
         <v>672</v>
       </c>
@@ -10154,7 +10152,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
         <v>674</v>
       </c>
@@ -10183,7 +10181,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
         <v>676</v>
       </c>
@@ -10212,7 +10210,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="21" customFormat="1">
       <c r="A17" s="15" t="s">
         <v>678</v>
       </c>
@@ -10241,7 +10239,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="21" customFormat="1">
       <c r="A18" s="15" t="s">
         <v>680</v>
       </c>
@@ -10270,7 +10268,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="21" customFormat="1">
       <c r="A19" s="15" t="s">
         <v>682</v>
       </c>
@@ -10299,7 +10297,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="21" customFormat="1">
       <c r="A20" s="15" t="s">
         <v>684</v>
       </c>
@@ -10328,7 +10326,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="21" customFormat="1">
       <c r="A21" s="15" t="s">
         <v>686</v>
       </c>
@@ -10357,7 +10355,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="21" customFormat="1">
       <c r="A22" s="15" t="s">
         <v>688</v>
       </c>
@@ -10386,7 +10384,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="22" customFormat="1">
       <c r="A23" s="15" t="s">
         <v>690</v>
       </c>
@@ -10415,7 +10413,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="22" customFormat="1">
       <c r="A24" s="15" t="s">
         <v>692</v>
       </c>
@@ -10444,7 +10442,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="22" customFormat="1">
       <c r="A25" s="15" t="s">
         <v>694</v>
       </c>
@@ -10473,7 +10471,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="22" customFormat="1">
       <c r="A26" s="15" t="s">
         <v>696</v>
       </c>
@@ -10502,7 +10500,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10517,7 +10515,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10532,7 +10530,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -10547,7 +10545,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -10562,207 +10560,206 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="B31" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="B32" s="21"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="21"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="21"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="21"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="21"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="21"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="21"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="21"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="21"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="21"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="21"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="21"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="21"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="21"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="21"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="21"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="21"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="21"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="21"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="21"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="21"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="21"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="21"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="21"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="21"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="21"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="21"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="21"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="21"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="21"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="21"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="21"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="21"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="21"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="21"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="21"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="21"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="21"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="21"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2">
       <c r="B74" s="21"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2">
       <c r="B75" s="21"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="21"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="21"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" s="21"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="21"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="21"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="21"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="21"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="21"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="21"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" s="21"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="21"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="21"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="21"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="21"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="21"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" s="21"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" s="21"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" s="21"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" s="21"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2">
       <c r="B95" s="21"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2">
       <c r="B96" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10779,19 +10776,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -10810,7 +10807,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -10831,7 +10828,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -10854,7 +10851,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -10877,7 +10874,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -10900,7 +10897,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -10923,7 +10920,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -10946,7 +10943,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -10969,7 +10966,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -10992,7 +10989,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11015,7 +11012,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11034,7 +11031,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11055,7 +11052,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11078,7 +11075,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11101,7 +11098,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11124,7 +11121,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11147,7 +11144,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11170,7 +11167,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11193,7 +11190,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11216,7 +11213,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11239,7 +11236,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11258,7 +11255,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11281,7 +11278,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11304,7 +11301,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11327,7 +11324,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11350,7 +11347,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11373,7 +11370,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11396,7 +11393,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11419,7 +11416,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11442,7 +11439,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11465,7 +11462,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11484,7 +11481,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11505,7 +11502,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11528,7 +11525,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11551,7 +11548,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11574,7 +11571,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11597,7 +11594,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11620,7 +11617,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11643,7 +11640,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11666,7 +11663,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11689,7 +11686,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11708,7 +11705,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11729,7 +11726,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11752,7 +11749,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11775,7 +11772,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11798,7 +11795,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -11821,7 +11818,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -11844,7 +11841,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -11867,7 +11864,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -11890,7 +11887,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -11913,7 +11910,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -11932,7 +11929,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -11953,7 +11950,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -11976,7 +11973,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -11999,7 +11996,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12022,7 +12019,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12045,7 +12042,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12068,7 +12065,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12091,7 +12088,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12114,7 +12111,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12137,7 +12134,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12156,7 +12153,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12177,7 +12174,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12202,7 +12199,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12225,7 +12222,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12248,7 +12245,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12271,7 +12268,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12294,7 +12291,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12317,7 +12314,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12340,7 +12337,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12363,7 +12360,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12386,7 +12383,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12405,7 +12402,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12426,7 +12423,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12449,7 +12446,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12474,7 +12471,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12497,7 +12494,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12520,7 +12517,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12543,7 +12540,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12566,7 +12563,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12589,7 +12586,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12612,7 +12609,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12635,7 +12632,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12658,7 +12655,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12681,7 +12678,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12704,7 +12701,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12723,7 +12720,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12746,7 +12743,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12769,7 +12766,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12792,7 +12789,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -12815,7 +12812,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -12838,7 +12835,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -12861,7 +12858,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -12884,7 +12881,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -12907,7 +12904,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -12930,7 +12927,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -12953,7 +12950,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -12972,7 +12969,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -12997,7 +12994,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13016,7 +13013,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13037,7 +13034,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13062,7 +13059,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13081,7 +13078,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13104,7 +13101,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13129,7 +13126,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13152,7 +13149,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13173,7 +13170,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13192,7 +13189,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13217,7 +13214,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13240,7 +13237,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13263,7 +13260,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13286,7 +13283,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13309,7 +13306,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13332,7 +13329,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13355,7 +13352,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13374,7 +13371,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13397,7 +13394,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13420,7 +13417,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13443,7 +13440,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13462,7 +13459,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13485,7 +13482,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13508,7 +13505,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13531,7 +13528,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13554,7 +13551,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13577,7 +13574,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13600,7 +13597,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13619,7 +13616,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13644,7 +13641,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13667,7 +13664,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13690,7 +13687,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13713,7 +13710,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13736,7 +13733,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13759,7 +13756,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13782,7 +13779,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -13805,7 +13802,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -13828,7 +13825,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -13847,7 +13844,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -13872,7 +13869,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -13893,7 +13890,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -13916,7 +13913,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -13939,7 +13936,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -13962,7 +13959,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -13985,7 +13982,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14008,7 +14005,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14031,7 +14028,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14054,7 +14051,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14077,7 +14074,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14100,7 +14097,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14123,7 +14120,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14146,7 +14143,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14169,7 +14166,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14188,7 +14185,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14211,7 +14208,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14230,7 +14227,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14253,7 +14250,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14276,7 +14273,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14295,7 +14292,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14320,7 +14317,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14343,7 +14340,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14366,7 +14363,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14389,7 +14386,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14412,7 +14409,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14435,7 +14432,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14458,7 +14455,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14481,7 +14478,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14504,7 +14501,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14527,7 +14524,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14546,7 +14543,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14571,7 +14568,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14594,7 +14591,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14617,7 +14614,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14640,7 +14637,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14663,7 +14660,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14686,7 +14683,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14709,7 +14706,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14732,7 +14729,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14755,7 +14752,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14778,7 +14775,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14797,7 +14794,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -14820,7 +14817,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -14843,7 +14840,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -14866,7 +14863,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -14889,7 +14886,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -14908,7 +14905,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -14931,7 +14928,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -14954,7 +14951,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -14977,7 +14974,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15000,7 +14997,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15019,7 +15016,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15040,7 +15037,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15063,7 +15060,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15082,7 +15079,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15105,7 +15102,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15130,7 +15127,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15151,7 +15148,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15176,7 +15173,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15201,7 +15198,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15220,7 +15217,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15245,7 +15242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15268,7 +15265,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15291,7 +15288,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15314,7 +15311,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15337,7 +15334,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15360,7 +15357,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15383,7 +15380,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15406,7 +15403,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15429,7 +15426,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15448,7 +15445,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15473,7 +15470,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15496,7 +15493,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15519,7 +15516,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15542,7 +15539,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15565,7 +15562,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15588,7 +15585,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15611,7 +15608,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15634,7 +15631,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15657,7 +15654,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15676,7 +15673,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15697,7 +15694,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15720,7 +15717,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15743,7 +15740,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15766,7 +15763,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15789,7 +15786,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -15812,7 +15809,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -15835,7 +15832,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -15858,7 +15855,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -15881,7 +15878,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -15904,7 +15901,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -15927,7 +15924,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -15950,7 +15947,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -15973,7 +15970,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -15996,7 +15993,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16019,7 +16016,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16042,7 +16039,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16061,7 +16058,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16082,7 +16079,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16105,7 +16102,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16128,7 +16125,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16151,7 +16148,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16174,7 +16171,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16197,7 +16194,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16220,7 +16217,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16243,7 +16240,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16266,7 +16263,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16289,7 +16286,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16312,7 +16309,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16335,7 +16332,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16358,7 +16355,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16381,7 +16378,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16404,7 +16401,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16427,7 +16424,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16446,7 +16443,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16471,7 +16468,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16494,7 +16491,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16517,7 +16514,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16540,7 +16537,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16563,7 +16560,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16582,7 +16579,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16607,7 +16604,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16630,7 +16627,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16649,7 +16646,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16668,7 +16665,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16687,7 +16684,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16708,7 +16705,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16731,7 +16728,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16754,7 +16751,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16777,7 +16774,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -16800,7 +16797,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -16823,7 +16820,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -16846,7 +16843,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -16869,7 +16866,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -16892,7 +16889,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -16915,7 +16912,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -16938,7 +16935,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -16957,7 +16954,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -16980,7 +16977,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -16999,7 +16996,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17024,7 +17021,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17047,7 +17044,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17070,7 +17067,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17093,7 +17090,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17116,7 +17113,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17139,7 +17136,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17162,7 +17159,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17185,7 +17182,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17208,7 +17205,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17231,7 +17228,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17254,7 +17251,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17273,7 +17270,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17296,7 +17293,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17315,7 +17312,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17336,7 +17333,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17355,7 +17352,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17376,7 +17373,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17395,7 +17392,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17416,7 +17413,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17435,7 +17432,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17458,7 +17455,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17477,7 +17474,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17502,7 +17499,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17525,7 +17522,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17548,7 +17545,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17571,7 +17568,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17594,7 +17591,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17617,7 +17614,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17640,7 +17637,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17663,7 +17660,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17686,7 +17683,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17705,7 +17702,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17728,7 +17725,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17751,7 +17748,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17774,7 +17771,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17797,7 +17794,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -17816,7 +17813,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -17839,7 +17836,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -17862,7 +17859,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -17887,7 +17884,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -17906,7 +17903,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -17931,7 +17928,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -17954,7 +17951,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -17973,7 +17970,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -17994,7 +17991,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18015,7 +18012,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18038,7 +18035,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18057,7 +18054,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18076,7 +18073,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18101,7 +18098,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18126,7 +18123,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18140,7 +18137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18163,7 +18160,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18183,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18203,7 +18200,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18223,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18240,7 +18237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18263,7 +18260,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18286,7 +18283,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18300,7 +18297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18323,7 +18320,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18346,7 +18343,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18366,7 +18363,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18386,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18403,7 +18400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18429,7 +18426,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18458,7 +18455,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18497,7 +18494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18511,7 +18508,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18531,7 +18528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18545,7 +18542,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18565,7 +18562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18585,7 +18582,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18605,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18625,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18645,7 +18642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18665,7 +18662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18685,7 +18682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18705,7 +18702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18725,7 +18722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18739,7 +18736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18759,7 +18756,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18779,7 +18776,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18795,7 +18792,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18821,7 +18818,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18862,7 +18859,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18876,7 +18873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18896,7 +18893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18910,7 +18907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18932,7 +18929,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18949,17 +18945,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -18976,7 +18972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="21" customFormat="1">
       <c r="A2" s="21" t="s">
         <v>645</v>
       </c>
@@ -18993,7 +18989,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="21" customFormat="1">
       <c r="A3" s="21" t="s">
         <v>589</v>
       </c>
@@ -19010,7 +19006,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="21" customFormat="1">
       <c r="A4" s="21" t="s">
         <v>591</v>
       </c>
@@ -19027,7 +19023,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="21" customFormat="1">
       <c r="A5" s="21" t="s">
         <v>593</v>
       </c>
@@ -19044,7 +19040,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="21" customFormat="1">
       <c r="A6" s="21" t="s">
         <v>595</v>
       </c>
@@ -19061,7 +19057,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="21" customFormat="1">
       <c r="A7" s="21" t="s">
         <v>597</v>
       </c>
@@ -19078,7 +19074,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="21" t="s">
         <v>439</v>
       </c>
@@ -19095,7 +19091,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="21" customFormat="1">
       <c r="A9" s="21" t="s">
         <v>600</v>
       </c>
@@ -19112,7 +19108,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="21" customFormat="1">
       <c r="A10" s="21" t="s">
         <v>602</v>
       </c>
@@ -19129,11 +19125,11 @@
         <v>726</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="21" customFormat="1"/>
+    <row r="12" spans="1:7" s="21" customFormat="1"/>
+    <row r="13" spans="1:7" s="21" customFormat="1"/>
+    <row r="14" spans="1:7" s="21" customFormat="1"/>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>569</v>
       </c>
@@ -19147,7 +19143,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>455</v>
       </c>
@@ -19161,7 +19157,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>453</v>
       </c>
@@ -19172,8 +19168,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="21" customFormat="1"/>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>547</v>
       </c>
@@ -19199,7 +19195,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>548</v>
       </c>
@@ -19240,7 +19236,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -19281,7 +19277,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>541</v>
       </c>
@@ -19313,7 +19309,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>550</v>
       </c>
@@ -19345,7 +19341,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>549</v>
       </c>
@@ -19374,7 +19370,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>551</v>
       </c>
@@ -19406,7 +19402,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>552</v>
       </c>
@@ -19426,7 +19422,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="L28" s="1" t="s">
         <v>557</v>
       </c>
@@ -19446,7 +19442,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="L29" s="1" t="s">
         <v>558</v>
       </c>
@@ -19457,7 +19453,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="L30" s="1" t="s">
         <v>538</v>
       </c>
@@ -19465,7 +19461,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="L31" s="1" t="s">
         <v>540</v>
       </c>
@@ -19478,7 +19474,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
